--- a/excel-to-json/data.v7.xlsx
+++ b/excel-to-json/data.v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e13a90d574c44d5/Documents/Carlos/MadridForAll/madrid-for-all/excel-to-json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A422CA3-A551-469E-A697-79AF9B74EBF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC2BAA2-A2C2-49F5-BDF8-6CA9D249BFA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1074">
   <si>
     <t>ID</t>
   </si>
@@ -2797,9 +2797,6 @@
     <t>AVENIDA INSTITUCIÓN LIBRE DE ENSEÑANZA, 41 BIS, 28037, MADRID</t>
   </si>
   <si>
-    <t>40.410499, -3.693619</t>
-  </si>
-  <si>
     <t>40.419138, -3.687799</t>
   </si>
   <si>
@@ -3353,9 +3350,6 @@
     <t>TERAPIA SIN FRONTERAS</t>
   </si>
   <si>
-    <t>40.410499</t>
-  </si>
-  <si>
     <t>40.417077</t>
   </si>
   <si>
@@ -3372,6 +3366,18 @@
   </si>
   <si>
     <t>-3.687799</t>
+  </si>
+  <si>
+    <t>40.417061</t>
+  </si>
+  <si>
+    <t>-3.687920</t>
+  </si>
+  <si>
+    <t>40.4105269</t>
+  </si>
+  <si>
+    <t>-3.6937909</t>
   </si>
 </sst>
 </file>
@@ -3579,7 +3585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3670,9 +3676,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3686,6 +3689,46 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="111">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4952,46 +4995,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5446,9 +5449,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table324" displayName="Table324" ref="A1:X69" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="A1:X69" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X69">
-    <sortCondition ref="B1:B69"/>
-  </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="108"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="orgName" dataDxfId="107"/>
@@ -5471,13 +5471,13 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="additionalInfo.AR" dataDxfId="90"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="additionalInfo.FR" dataDxfId="89"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="fullAddress" dataDxfId="88"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="geocode.lat" dataDxfId="87">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="geocode.lat" dataDxfId="1">
       <calculatedColumnFormula>GetLatitude(U2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="geocode.lng" dataDxfId="86">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="geocode.lng" dataDxfId="0">
       <calculatedColumnFormula>GetLongitude(U2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="geocode.coordinates" dataDxfId="85">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="geocode.coordinates" dataDxfId="87">
       <calculatedColumnFormula>GetCoordinates(Table324[[#This Row],[fullAddress]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5486,128 +5486,128 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:G47" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:G47" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:G47" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="key" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="category" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="icon" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ES" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EN" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="AR" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="key" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="category" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="icon" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ES" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EN" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="FR" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="AR" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:AU69" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:AU69" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:AU69" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="47">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="locationID" dataDxfId="73"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0200-00002D000000}" name="c1s0[]" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="c1s1[]" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="c1s2[]" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="c1s3[]" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="c1s4[]" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="c1s5[]" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="c1s6[]" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="c1s7[]" dataDxfId="65"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0200-00002E000000}" name="c2s0[]" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="c2s1[]" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="c2s2[]" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="c2s3[]" dataDxfId="61"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="c2s4[]" dataDxfId="60"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="c2s5[]" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="c2s6[]" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="c2s7[]" dataDxfId="57"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="c2s8[]" dataDxfId="56"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="c2s9[]" dataDxfId="55"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="c2s10[]" dataDxfId="54"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="c2s11[]" dataDxfId="53"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="c2s12[]" dataDxfId="52"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0200-00002F000000}" name="c3s0[]" dataDxfId="51"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="c3s1[]" dataDxfId="50"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="c3s2[]" dataDxfId="49"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="c3s3[]" dataDxfId="48"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="c3s4[]" dataDxfId="47"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="c3s5[]" dataDxfId="46"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="c3s6[]" dataDxfId="45"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0200-000030000000}" name="c4s0[]" dataDxfId="44"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="c4s1[]" dataDxfId="43"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="c4s2[]" dataDxfId="42"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="c4s3[]" dataDxfId="41"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="c4s4[]" dataDxfId="40"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0200-000031000000}" name="c5s0[]" dataDxfId="39"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="c5s1[]" dataDxfId="38"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="c5s2[]" dataDxfId="37"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="c5s3[]" dataDxfId="36"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="c5s4[]" dataDxfId="35"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="c5s5[]" dataDxfId="34"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="c5s6[]" dataDxfId="33"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="c5s7[]" dataDxfId="32"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="c6s0[]" dataDxfId="31"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0200-000028000000}" name="c7s0[]" dataDxfId="30"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0200-000029000000}" name="c8s0[]" dataDxfId="29"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0200-00002A000000}" name="c9s0[]" dataDxfId="28"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0200-00002B000000}" name="c10s0[]" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="locationID" dataDxfId="75"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0200-00002D000000}" name="c1s0[]" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="c1s1[]" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="c1s2[]" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="c1s3[]" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="c1s4[]" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="c1s5[]" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="c1s6[]" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="c1s7[]" dataDxfId="67"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0200-00002E000000}" name="c2s0[]" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="c2s1[]" dataDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="c2s2[]" dataDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="c2s3[]" dataDxfId="63"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="c2s4[]" dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="c2s5[]" dataDxfId="61"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="c2s6[]" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="c2s7[]" dataDxfId="59"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="c2s8[]" dataDxfId="58"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="c2s9[]" dataDxfId="57"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="c2s10[]" dataDxfId="56"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="c2s11[]" dataDxfId="55"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="c2s12[]" dataDxfId="54"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0200-00002F000000}" name="c3s0[]" dataDxfId="53"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="c3s1[]" dataDxfId="52"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="c3s2[]" dataDxfId="51"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="c3s3[]" dataDxfId="50"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="c3s4[]" dataDxfId="49"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="c3s5[]" dataDxfId="48"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="c3s6[]" dataDxfId="47"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0200-000030000000}" name="c4s0[]" dataDxfId="46"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="c4s1[]" dataDxfId="45"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="c4s2[]" dataDxfId="44"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="c4s3[]" dataDxfId="43"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="c4s4[]" dataDxfId="42"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0200-000031000000}" name="c5s0[]" dataDxfId="41"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="c5s1[]" dataDxfId="40"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="c5s2[]" dataDxfId="39"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="c5s3[]" dataDxfId="38"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="c5s4[]" dataDxfId="37"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="c5s5[]" dataDxfId="36"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="c5s6[]" dataDxfId="35"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="c5s7[]" dataDxfId="34"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="c6s0[]" dataDxfId="33"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0200-000028000000}" name="c7s0[]" dataDxfId="32"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0200-000029000000}" name="c8s0[]" dataDxfId="31"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0200-00002A000000}" name="c9s0[]" dataDxfId="30"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0200-00002B000000}" name="c10s0[]" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:E12" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:E12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:E12" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="key" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ES" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="EN" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FR" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="AR" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="key" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ES" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="EN" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FR" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="AR" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A1:E7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A1:E7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="key" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ES" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="EN" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="AR" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="FR" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="key" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ES" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="EN" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="AR" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="FR" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A1:E6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="key" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="ES" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="EN" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="FR" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="AR" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="key" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="ES" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="EN" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="FR" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="AR" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla1" displayName="Tabla1" ref="A1:E5" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla1" displayName="Tabla1" ref="A1:E5" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="key" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="ES" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="EN" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="FR" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="AR" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="key" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="ES" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="EN" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="FR" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="AR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5913,9 +5913,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X69" sqref="X69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -5982,7 +5982,7 @@
         <v>58</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>59</v>
@@ -5991,7 +5991,7 @@
         <v>60</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>61</v>
@@ -6003,7 +6003,7 @@
         <v>526</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="T1" s="21" t="s">
         <v>527</v>
@@ -6021,592 +6021,601 @@
         <v>713</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="50.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>644</v>
+        <v>593</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="C2" s="32">
-        <v>655485241</v>
+        <v>914049118</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>702</v>
+        <v>82</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G2" s="32">
-        <v>28013</v>
+        <v>28017</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>508</v>
+        <v>86</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>446</v>
+        <v>87</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>770</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>447</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
       <c r="S2" s="33"/>
-      <c r="T2" s="37" t="s">
-        <v>817</v>
-      </c>
+      <c r="T2" s="37"/>
       <c r="U2" s="33" t="str">
         <f>"" &amp; $F2 &amp; ", " &amp; $G2 &amp; ", " &amp; $I2</f>
-        <v>CALLE SAN FELIPE NERI, 4 BAJO DCHA, 28013, MADRID</v>
-      </c>
-      <c r="V2" s="33" t="str">
+        <v>CALLE JOSÉ LUIS DE ARRESE 66 LOCAL, 28017, MADRID</v>
+      </c>
+      <c r="V2" s="38" t="str">
         <f>GetLatitude(U2)</f>
-        <v>40.4164559</v>
-      </c>
-      <c r="W2" s="36" t="str">
+        <v>40.4236238</v>
+      </c>
+      <c r="W2" s="39" t="str">
         <f>GetLongitude(U2)</f>
-        <v>-3.7082778</v>
+        <v>-3.6508187</v>
       </c>
       <c r="X2" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4164559, -3.7082778</v>
+        <v>40.4236238, -3.6508187</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>382</v>
+        <v>90</v>
       </c>
       <c r="C3" s="32">
-        <v>917868384</v>
+        <v>680995764</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>383</v>
+        <v>91</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>687</v>
+        <v>843</v>
       </c>
       <c r="G3" s="32">
-        <v>28053</v>
+        <v>28803</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
-        <v>362</v>
+        <v>780</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>769</v>
+        <v>734</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>385</v>
+        <v>98</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="37" t="s">
-        <v>1041</v>
-      </c>
-      <c r="U3" s="33" t="str">
-        <f>"" &amp; $F3 &amp; ", " &amp; $G3 &amp; ", " &amp; $I3</f>
-        <v>CALLE SANTANDERINA, 4, 28053, MADRID</v>
-      </c>
-      <c r="V3" s="33" t="str">
-        <f>GetLatitude(U3)</f>
-        <v>40.3739519</v>
-      </c>
-      <c r="W3" s="36" t="str">
-        <f>GetLongitude(U3)</f>
-        <v>-3.6592225</v>
-      </c>
-      <c r="X3" s="33" t="str">
-        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3739519, -3.6592225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W3" s="39" t="s">
+        <v>1069</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>1063</v>
+        <v>99</v>
+      </c>
+      <c r="C4" s="32">
+        <v>915220070</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="G4" s="32">
-        <v>28029</v>
+        <v>28004</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="33" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>106</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>761</v>
-      </c>
-      <c r="R4" s="33"/>
+        <v>735</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="S4" s="33"/>
       <c r="T4" s="37" t="s">
-        <v>1035</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>879</v>
-      </c>
-      <c r="V4" s="33" t="str">
+        <v>804</v>
+      </c>
+      <c r="U4" s="33" t="str">
+        <f>"" &amp; $F4 &amp; ", " &amp; $G4 &amp; ", " &amp; $I4</f>
+        <v>CORREDERA BAJA DE SAN PABLO, 16, 28004, MADRID</v>
+      </c>
+      <c r="V4" s="38" t="str">
         <f>GetLatitude(U4)</f>
-        <v>40.4731095</v>
-      </c>
-      <c r="W4" s="36" t="str">
+        <v>40.4226654</v>
+      </c>
+      <c r="W4" s="39" t="str">
         <f>GetLongitude(U4)</f>
-        <v>-3.6938230</v>
+        <v>-3.7034987</v>
       </c>
       <c r="X4" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4731095, -3.6938230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4226654, -3.7034987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="63" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>1063</v>
+        <v>99</v>
+      </c>
+      <c r="C5" s="32">
+        <v>915220070</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G5" s="32"/>
+        <v>844</v>
+      </c>
+      <c r="G5" s="32">
+        <v>28004</v>
+      </c>
       <c r="H5" s="33" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>344</v>
+        <v>68</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>765</v>
+        <v>109</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33">
-        <v>40417061</v>
-      </c>
-      <c r="W5" s="36">
-        <v>-3687920</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>885</v>
+        <v>805</v>
+      </c>
+      <c r="U5" s="33" t="str">
+        <f>"" &amp; $F5 &amp; ", " &amp; $G5 &amp; ", " &amp; $I5</f>
+        <v>CORREDERA BAJA DE SAN PABLO, 16, 28004, MADRID</v>
+      </c>
+      <c r="V5" s="38" t="str">
+        <f>GetLatitude(U5)</f>
+        <v>40.4226654</v>
+      </c>
+      <c r="W5" s="39" t="str">
+        <f>GetLongitude(U5)</f>
+        <v>-3.7034987</v>
+      </c>
+      <c r="X5" s="33" t="str">
+        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
+        <v>40.4226654, -3.7034987</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C6" s="32">
-        <v>914049118</v>
+        <v>914379815</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>83</v>
+        <v>1062</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>677</v>
+        <v>845</v>
       </c>
       <c r="G6" s="32">
-        <v>28017</v>
+        <v>28030</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>86</v>
+        <v>888</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>62</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>736</v>
+      </c>
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
-      <c r="T6" s="37"/>
+      <c r="T6" s="37" t="s">
+        <v>1027</v>
+      </c>
       <c r="U6" s="33" t="str">
-        <f t="shared" ref="U6:U13" si="0">"" &amp; $F6 &amp; ", " &amp; $G6 &amp; ", " &amp; $I6</f>
-        <v>CALLE JOSÉ LUIS DE ARRESE 66 LOCAL, 28017, MADRID</v>
-      </c>
-      <c r="V6" s="33" t="str">
-        <f t="shared" ref="V6:V21" si="1">GetLatitude(U6)</f>
-        <v>40.4236238</v>
-      </c>
-      <c r="W6" s="36" t="str">
-        <f t="shared" ref="W6:W21" si="2">GetLongitude(U6)</f>
-        <v>-3.6508187</v>
+        <f>"" &amp; $F6 &amp; ", " &amp; $G6 &amp; ", " &amp; $I6</f>
+        <v>CALLE DEL CORREGIDOR DIEGO DE VALDERRABANO, 45, 28030, MADRID</v>
+      </c>
+      <c r="V6" s="38" t="str">
+        <f>GetLatitude(U6)</f>
+        <v>40.4131224</v>
+      </c>
+      <c r="W6" s="39" t="str">
+        <f>GetLongitude(U6)</f>
+        <v>-3.6599634</v>
       </c>
       <c r="X6" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4236238, -3.6508187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4131224, -3.6599634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>356</v>
+        <v>116</v>
       </c>
       <c r="C7" s="32">
-        <v>639902518</v>
+        <v>644882198</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>357</v>
+        <v>117</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1063</v>
+        <v>119</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G7" s="32">
-        <v>28013</v>
+        <v>28038</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q7" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>528</v>
+      </c>
       <c r="R7" s="33" t="s">
-        <v>358</v>
+        <v>529</v>
       </c>
       <c r="S7" s="33"/>
       <c r="T7" s="37" t="s">
-        <v>1038</v>
+        <v>530</v>
       </c>
       <c r="U7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>CALLE MAYOR 21, 1º IZQ, 28013, MADRID</v>
-      </c>
-      <c r="V7" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4162280</v>
-      </c>
-      <c r="W7" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.7066150</v>
+        <f>"" &amp; $F7 &amp; ", " &amp; $G7 &amp; ", " &amp; $I7</f>
+        <v>CALLE MONTSENY, 35 , 28038, MADRID</v>
+      </c>
+      <c r="V7" s="38" t="str">
+        <f>GetLatitude(U7)</f>
+        <v>40.4005434</v>
+      </c>
+      <c r="W7" s="39" t="str">
+        <f>GetLongitude(U7)</f>
+        <v>-3.6624328</v>
       </c>
       <c r="X7" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4162280, -3.7066150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4005434, -3.6624328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>657</v>
+        <v>599</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>505</v>
+        <v>139</v>
       </c>
       <c r="C8" s="32">
-        <v>913581444</v>
+        <v>913555550</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>506</v>
+        <v>140</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>507</v>
+        <v>142</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>698</v>
+        <v>847</v>
       </c>
       <c r="G8" s="32">
-        <v>28034</v>
+        <v>28028</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>508</v>
+        <v>154</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="33" t="s">
-        <v>797</v>
+        <v>156</v>
       </c>
       <c r="N8" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
+        <v>308</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>158</v>
+      </c>
       <c r="S8" s="33"/>
-      <c r="T8" s="37"/>
+      <c r="T8" s="37" t="s">
+        <v>806</v>
+      </c>
       <c r="U8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>AVENIDA LLANO CASTELLANO, 26, 28034, MADRID</v>
-      </c>
-      <c r="V8" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4888120</v>
-      </c>
-      <c r="W8" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6850846</v>
+        <f>"" &amp; $F8 &amp; ", " &amp; $G8 &amp; ", " &amp; $I8</f>
+        <v>CALLE BOCÁNGEL, 2, 28028, MADRID</v>
+      </c>
+      <c r="V8" s="38" t="str">
+        <f>GetLatitude(U8)</f>
+        <v>40.4298802</v>
+      </c>
+      <c r="W8" s="39" t="str">
+        <f>GetLongitude(U8)</f>
+        <v>-3.6643317</v>
       </c>
       <c r="X8" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4888120, -3.6850846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4298802, -3.6643317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>837</v>
+        <v>159</v>
       </c>
       <c r="C9" s="32">
-        <v>918780905</v>
+        <v>635736573</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>346</v>
+        <v>160</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>347</v>
+        <v>1062</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>686</v>
+        <v>846</v>
       </c>
       <c r="G9" s="32">
-        <v>28013</v>
+        <v>28029</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>154</v>
+        <v>891</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="33" t="s">
-        <v>335</v>
+        <v>800</v>
       </c>
       <c r="N9" s="33" t="s">
         <v>106</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>766</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>348</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="37" t="s">
-        <v>829</v>
-      </c>
+      <c r="T9" s="37"/>
       <c r="U9" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>CALLE MONTERA, 24, 2 O, 28013, MADRID</v>
-      </c>
-      <c r="V9" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4185112</v>
-      </c>
-      <c r="W9" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.7019337</v>
+        <f>"" &amp; $F9 &amp; ", " &amp; $G9 &amp; ", " &amp; $I9</f>
+        <v>CALLE BETANZOS, 37, 28029, MADRID</v>
+      </c>
+      <c r="V9" s="38" t="str">
+        <f>GetLatitude(U9)</f>
+        <v>40.4746269</v>
+      </c>
+      <c r="W9" s="39" t="str">
+        <f>GetLongitude(U9)</f>
+        <v>-3.7114436</v>
       </c>
       <c r="X9" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4185112, -3.7019337</v>
+        <v>40.4746269, -3.7114436</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>509</v>
+        <v>163</v>
       </c>
       <c r="C10" s="32">
-        <v>622397863</v>
+        <v>914672726</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>510</v>
+        <v>164</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>511</v>
+        <v>841</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>699</v>
+        <v>842</v>
       </c>
       <c r="G10" s="32">
-        <v>28005</v>
+        <v>28045</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>165</v>
@@ -6615,412 +6624,409 @@
         <v>85</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>757</v>
+        <v>166</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="33" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P10" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>512</v>
+        <v>168</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="37" t="s">
-        <v>825</v>
+        <v>1029</v>
       </c>
       <c r="U10" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>CALLE ARQUITECTURA, 15, BAJO, 28005, MADRID</v>
-      </c>
-      <c r="V10" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.3991868</v>
-      </c>
-      <c r="W10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.7019980</v>
+        <f>"" &amp; $F10 &amp; ", " &amp; $G10 &amp; ", " &amp; $I10</f>
+        <v>CALLE CÁCERES, 10 1º DERECHA, 28045, MADRID</v>
+      </c>
+      <c r="V10" s="38" t="str">
+        <f>GetLatitude(U10)</f>
+        <v>40.3986780</v>
+      </c>
+      <c r="W10" s="39" t="str">
+        <f>GetLongitude(U10)</f>
+        <v>-3.6957440</v>
       </c>
       <c r="X10" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3991868, -3.7019980</v>
+        <v>40.3986780, -3.6957440</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>838</v>
+        <v>170</v>
       </c>
       <c r="C11" s="32">
-        <v>679367339</v>
+        <v>917772822</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>403</v>
+        <v>171</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="G11" s="32">
-        <v>28009</v>
+        <v>28018</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L11" s="33"/>
       <c r="M11" s="33" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="33"/>
+        <v>95</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>96</v>
+      </c>
       <c r="P11" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>405</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="37" t="s">
-        <v>813</v>
+        <v>1028</v>
       </c>
       <c r="U11" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>PASEO JULIO ROMERO DE TORRES S/N PARQUE DEL RETIRO, 28009, MADRID</v>
-      </c>
-      <c r="V11" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4152606</v>
-      </c>
-      <c r="W11" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6844995</v>
+        <f>"" &amp; $F11 &amp; ", " &amp; $G11 &amp; ", " &amp; $I11</f>
+        <v>CALLE JAVIER DE MIGUEL, 92 BLOQUE I LOCAL 1, 28018, MADRID</v>
+      </c>
+      <c r="V11" s="38" t="str">
+        <f>GetLatitude(U11)</f>
+        <v>40.3884884</v>
+      </c>
+      <c r="W11" s="39" t="str">
+        <f>GetLongitude(U11)</f>
+        <v>-3.7052074</v>
       </c>
       <c r="X11" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4152606, -3.6844995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.3884884, -3.7052074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="C12" s="32">
-        <v>626274495</v>
+        <v>173</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>1063</v>
+        <v>175</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="G12" s="32">
-        <v>28043</v>
+        <v>28014</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>379</v>
+        <v>102</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="L12" s="33"/>
       <c r="M12" s="33" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>380</v>
+        <v>177</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="37" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="U12" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>CALLE SILVANO, 150, 28043, MADRID</v>
-      </c>
-      <c r="V12" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4624936</v>
-      </c>
-      <c r="W12" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6290532</v>
+        <f>"" &amp; $F12 &amp; ", " &amp; $G12 &amp; ", " &amp; $I12</f>
+        <v>CALLE GOBERNADOR, 39, 28014, MADRID</v>
+      </c>
+      <c r="V12" s="38" t="str">
+        <f>GetLatitude(U12)</f>
+        <v>40.4115124</v>
+      </c>
+      <c r="W12" s="39" t="str">
+        <f>GetLongitude(U12)</f>
+        <v>-3.6933957</v>
       </c>
       <c r="X12" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4624936, -3.6290532</v>
+        <v>40.4115124, -3.6933957</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>111</v>
+        <v>834</v>
       </c>
       <c r="C13" s="32">
-        <v>914379815</v>
+        <v>913721506</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1063</v>
+        <v>180</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>845</v>
+        <v>680</v>
       </c>
       <c r="G13" s="32">
-        <v>28030</v>
+        <v>28029</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>889</v>
+        <v>154</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33" t="s">
-        <v>781</v>
+        <v>156</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="P13" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="R13" s="33"/>
+        <v>760</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>181</v>
+      </c>
       <c r="S13" s="33"/>
       <c r="T13" s="37" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="U13" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>CALLE DEL CORREGIDOR DIEGO DE VALDERRABANO, 45, 28030, MADRID</v>
-      </c>
-      <c r="V13" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4131224</v>
-      </c>
-      <c r="W13" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6599634</v>
+        <f>"" &amp; $F13 &amp; ", " &amp; $G13 &amp; ", " &amp; $I13</f>
+        <v>CALLE RIVADAVIA, 20, 28029, MADRID</v>
+      </c>
+      <c r="V13" s="38" t="str">
+        <f>GetLatitude(U13)</f>
+        <v>40.4724723</v>
+      </c>
+      <c r="W13" s="39" t="str">
+        <f>GetLongitude(U13)</f>
+        <v>-3.7049219</v>
       </c>
       <c r="X13" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4131224, -3.6599634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4724723, -3.7049219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="32">
-        <v>917779661</v>
+        <v>182</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1063</v>
+        <v>184</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>880</v>
+        <v>849</v>
       </c>
       <c r="G14" s="32">
-        <v>28038</v>
+        <v>28020</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="P14" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="33"/>
-      <c r="R14" s="33" t="s">
-        <v>246</v>
-      </c>
+      <c r="R14" s="33"/>
       <c r="S14" s="33"/>
-      <c r="T14" s="37" t="s">
-        <v>1034</v>
-      </c>
-      <c r="U14" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="V14" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.3991286</v>
-      </c>
-      <c r="W14" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6536343</v>
+      <c r="T14" s="37"/>
+      <c r="U14" s="33" t="str">
+        <f>"" &amp; $F14 &amp; ", " &amp; $G14 &amp; ", " &amp; $I14</f>
+        <v>CALLE ANASTASIO HERRERO, 10, 28020, MADRID</v>
+      </c>
+      <c r="V14" s="38" t="str">
+        <f>GetLatitude(U14)</f>
+        <v>40.4566109</v>
+      </c>
+      <c r="W14" s="39" t="str">
+        <f>GetLongitude(U14)</f>
+        <v>-3.7009844</v>
       </c>
       <c r="X14" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3991286, -3.6536343</v>
+        <v>40.4566109, -3.7009844</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>237</v>
+        <v>1063</v>
       </c>
       <c r="C15" s="32">
-        <v>917779661</v>
+        <v>914299756</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1063</v>
+        <v>187</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G15" s="32">
-        <v>28038</v>
+        <v>28014</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>757</v>
+        <v>154</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="L15" s="33"/>
       <c r="M15" s="33" t="s">
-        <v>784</v>
+        <v>156</v>
       </c>
       <c r="N15" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>762</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>255</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="R15" s="33"/>
       <c r="S15" s="33"/>
       <c r="T15" s="37" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="U15" s="33" t="str">
-        <f t="shared" ref="U15:U21" si="3">"" &amp; $F15 &amp; ", " &amp; $G15 &amp; ", " &amp; $I15</f>
-        <v>CALLE MARISMAS, 37, 28038, MADRID</v>
-      </c>
-      <c r="V15" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4023568</v>
-      </c>
-      <c r="W15" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6540105</v>
+        <f>"" &amp; $F15 &amp; ", " &amp; $G15 &amp; ", " &amp; $I15</f>
+        <v>CALLE SAN AGUSTIN, 7. 1RA, EXT IZDA, 28014, MADRID</v>
+      </c>
+      <c r="V15" s="38" t="str">
+        <f>GetLatitude(U15)</f>
+        <v>40.4148312</v>
+      </c>
+      <c r="W15" s="39" t="str">
+        <f>GetLongitude(U15)</f>
+        <v>-3.6967330</v>
       </c>
       <c r="X15" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4023568, -3.6540105</v>
+        <v>40.4148312, -3.6967330</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
@@ -7075,15 +7081,15 @@
       <c r="S16" s="33"/>
       <c r="T16" s="37"/>
       <c r="U16" s="33" t="str">
-        <f t="shared" si="3"/>
+        <f>"" &amp; $F16 &amp; ", " &amp; $G16 &amp; ", " &amp; $I16</f>
         <v>CALLE RAFAEL FERNANDEZ HIJICOS, 2, 28038, MADRID</v>
       </c>
-      <c r="V16" s="33" t="str">
-        <f t="shared" si="1"/>
+      <c r="V16" s="38" t="str">
+        <f>GetLatitude(U16)</f>
         <v>40.3924062</v>
       </c>
-      <c r="W16" s="36" t="str">
-        <f t="shared" si="2"/>
+      <c r="W16" s="39" t="str">
+        <f>GetLongitude(U16)</f>
         <v>-3.6368758</v>
       </c>
       <c r="X16" s="33" t="str">
@@ -7091,176 +7097,175 @@
         <v>40.3924062, -3.6368758</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C17" s="32">
-        <v>917772822</v>
+        <v>918286978</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G17" s="32">
-        <v>28018</v>
+        <v>28005</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>166</v>
+        <v>889</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33" t="s">
-        <v>353</v>
+        <v>783</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>758</v>
-      </c>
-      <c r="R17" s="33"/>
+        <v>737</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="S17" s="33"/>
       <c r="T17" s="37" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="U17" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>CALLE JAVIER DE MIGUEL, 92 BLOQUE I LOCAL 1, 28018, MADRID</v>
-      </c>
-      <c r="V17" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.3884884</v>
-      </c>
-      <c r="W17" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.7052074</v>
+        <f>"" &amp; $F17 &amp; ", " &amp; $G17 &amp; ", " &amp; $I17</f>
+        <v>CALLE ARQUITECTURA 15 DUPLICADO, 28005, MADRID</v>
+      </c>
+      <c r="V17" s="38" t="str">
+        <f>GetLatitude(U17)</f>
+        <v>40.3991868</v>
+      </c>
+      <c r="W17" s="39" t="str">
+        <f>GetLongitude(U17)</f>
+        <v>-3.7019980</v>
       </c>
       <c r="X17" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3884884, -3.7052074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.3991868, -3.7019980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>834</v>
-      </c>
-      <c r="C18" s="32">
-        <v>913721506</v>
+        <v>219</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>680</v>
+        <v>878</v>
       </c>
       <c r="G18" s="32">
         <v>28029</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>760</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>181</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="R18" s="33"/>
       <c r="S18" s="33"/>
       <c r="T18" s="37" t="s">
-        <v>1031</v>
-      </c>
-      <c r="U18" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>CALLE RIVADAVIA, 20, 28029, MADRID</v>
-      </c>
-      <c r="V18" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4724723</v>
-      </c>
-      <c r="W18" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.7049219</v>
+        <v>1034</v>
+      </c>
+      <c r="U18" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="V18" s="38" t="str">
+        <f>GetLatitude(U18)</f>
+        <v>40.4731095</v>
+      </c>
+      <c r="W18" s="39" t="str">
+        <f>GetLongitude(U18)</f>
+        <v>-3.6938230</v>
       </c>
       <c r="X18" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4724723, -3.7049219</v>
+        <v>40.4731095, -3.6938230</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="C19" s="32">
-        <v>914424991</v>
+        <v>917779661</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>360</v>
+        <v>238</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>361</v>
+        <v>1062</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="G19" s="32">
-        <v>28015</v>
+        <v>28038</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>85</v>
@@ -7273,441 +7278,440 @@
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="33" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="N19" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="P19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="33" t="s">
-        <v>767</v>
-      </c>
+      <c r="Q19" s="33"/>
       <c r="R19" s="33" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="U19" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>CALLE SAN BERNARDO, 120 1º IZQ C, 28015, MADRID</v>
-      </c>
-      <c r="V19" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4323053</v>
-      </c>
-      <c r="W19" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.7046772</v>
+        <v>1033</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="V19" s="38" t="str">
+        <f>GetLatitude(U19)</f>
+        <v>40.3991286</v>
+      </c>
+      <c r="W19" s="39" t="str">
+        <f>GetLongitude(U19)</f>
+        <v>-3.6536343</v>
       </c>
       <c r="X19" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4323053, -3.7046772</v>
+        <v>40.3991286, -3.6536343</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="C20" s="32">
-        <v>915704428</v>
+        <v>917779661</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>371</v>
+        <v>249</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>544</v>
+        <v>1062</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="G20" s="32">
-        <v>28039</v>
+        <v>28038</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>154</v>
+        <v>757</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="33" t="s">
-        <v>335</v>
+        <v>784</v>
       </c>
       <c r="N20" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>363</v>
+        <v>62</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>401</v>
+        <v>762</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>372</v>
+        <v>255</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="37" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="U20" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>CALLE FRAY JUNÍPERO SERRA, 43 ESC 2, 3, 28039, MADRID</v>
-      </c>
-      <c r="V20" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.4653751</v>
-      </c>
-      <c r="W20" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6996119</v>
+        <f>"" &amp; $F20 &amp; ", " &amp; $G20 &amp; ", " &amp; $I20</f>
+        <v>CALLE MARISMAS, 37, 28038, MADRID</v>
+      </c>
+      <c r="V20" s="38" t="str">
+        <f>GetLatitude(U20)</f>
+        <v>40.4023568</v>
+      </c>
+      <c r="W20" s="39" t="str">
+        <f>GetLongitude(U20)</f>
+        <v>-3.6540105</v>
       </c>
       <c r="X20" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4653751, -3.6996119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="88.2" x14ac:dyDescent="0.2">
+        <v>40.4023568, -3.6540105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21" s="32">
-        <v>917975354</v>
+        <v>258</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>351</v>
+        <v>260</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G21" s="32">
-        <v>28021</v>
+        <v>28005</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>166</v>
+        <v>893</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33" t="s">
-        <v>353</v>
+        <v>785</v>
       </c>
       <c r="N21" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>308</v>
+        <v>72</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>739</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>354</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="33"/>
-      <c r="T21" s="37" t="s">
-        <v>355</v>
-      </c>
+      <c r="T21" s="37"/>
       <c r="U21" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v>CALLE ROMERAL, 12 , 28021, MADRID</v>
-      </c>
-      <c r="V21" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>40.3491067</v>
-      </c>
-      <c r="W21" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>-3.6970806</v>
+        <f>"" &amp; $F21 &amp; ", " &amp; $G21 &amp; ", " &amp; $I21</f>
+        <v>CALLE RIBERA DE CURTIDORES, 2, 28005, MADRID</v>
+      </c>
+      <c r="V21" s="38" t="str">
+        <f>GetLatitude(U21)</f>
+        <v>40.4091711</v>
+      </c>
+      <c r="W21" s="39" t="str">
+        <f>GetLongitude(U21)</f>
+        <v>-3.7074268</v>
       </c>
       <c r="X21" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3491067, -3.6970806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4091711, -3.7074268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>656</v>
+        <v>613</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>840</v>
+        <v>291</v>
       </c>
       <c r="C22" s="32">
-        <v>915222921</v>
+        <v>915592906</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>502</v>
+        <v>292</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>503</v>
+        <v>293</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>876</v>
+        <v>683</v>
       </c>
       <c r="G22" s="32">
-        <v>28037</v>
+        <v>28012</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>421</v>
+        <v>102</v>
       </c>
       <c r="I22" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>154</v>
+        <v>890</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>155</v>
+        <v>902</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="33" t="s">
-        <v>500</v>
+        <v>786</v>
       </c>
       <c r="N22" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>776</v>
+        <v>738</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="S22" s="33"/>
       <c r="T22" s="37" t="s">
-        <v>1045</v>
-      </c>
-      <c r="U22" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="V22" s="33"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="33"/>
+        <v>807</v>
+      </c>
+      <c r="U22" s="33" t="str">
+        <f>"" &amp; $F22 &amp; ", " &amp; $G22 &amp; ", " &amp; $I22</f>
+        <v>CALLE LAVAPIÉS, 13, 28012, MADRID</v>
+      </c>
+      <c r="V22" s="38" t="str">
+        <f>GetLatitude(U22)</f>
+        <v>40.4110726</v>
+      </c>
+      <c r="W22" s="39" t="str">
+        <f>GetLongitude(U22)</f>
+        <v>-3.7027240</v>
+      </c>
+      <c r="X22" s="33" t="str">
+        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
+        <v>40.4110726, -3.7027240</v>
+      </c>
     </row>
     <row r="23" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C23" s="32">
-        <v>915531873</v>
+        <v>912244837</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G23" s="32">
-        <v>28003</v>
+        <v>28039</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="33" t="s">
-        <v>787</v>
+        <v>322</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>764</v>
-      </c>
-      <c r="R23" s="33" t="s">
-        <v>331</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="37" t="s">
-        <v>809</v>
+        <v>1031</v>
       </c>
       <c r="U23" s="33" t="str">
-        <f t="shared" ref="U23:U33" si="4">"" &amp; $F23 &amp; ", " &amp; $G23 &amp; ", " &amp; $I23</f>
-        <v>CALLE SANTA ENGRACIA, 140, 28003, MADRID</v>
-      </c>
-      <c r="V23" s="33" t="str">
-        <f t="shared" ref="V23:V33" si="5">GetLatitude(U23)</f>
-        <v>40.4436353</v>
-      </c>
-      <c r="W23" s="36" t="str">
-        <f t="shared" ref="W23:W33" si="6">GetLongitude(U23)</f>
-        <v>-3.7022263</v>
+        <f>"" &amp; $F23 &amp; ", " &amp; $G23 &amp; ", " &amp; $I23</f>
+        <v>CALLE AGUILAR DE CAMPOO, 13 POSTERIOR, 28039, MADRID</v>
+      </c>
+      <c r="V23" s="38" t="str">
+        <f>GetLatitude(U23)</f>
+        <v>40.4635373</v>
+      </c>
+      <c r="W23" s="39" t="str">
+        <f>GetLongitude(U23)</f>
+        <v>-3.7188877</v>
       </c>
       <c r="X23" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4436353, -3.7022263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4635373, -3.7188877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>399</v>
+        <v>836</v>
       </c>
       <c r="C24" s="32">
-        <v>915398704</v>
+        <v>911684483</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>400</v>
+        <v>323</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>537</v>
+        <v>324</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G24" s="32">
-        <v>28012</v>
+        <v>28029</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33" t="s">
-        <v>353</v>
+        <v>156</v>
       </c>
       <c r="N24" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="P24" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>401</v>
+        <v>763</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="S24" s="33"/>
       <c r="T24" s="37" t="s">
-        <v>1032</v>
+        <v>808</v>
       </c>
       <c r="U24" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE EMBAJADORES, 37 POSTERIOR, LOCAL., 28012, MADRID</v>
-      </c>
-      <c r="V24" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.3961566</v>
-      </c>
-      <c r="W24" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.6498509</v>
+        <f>"" &amp; $F24 &amp; ", " &amp; $G24 &amp; ", " &amp; $I24</f>
+        <v>CALLE SAN AQUILINO, 27 , 28029, MADRID</v>
+      </c>
+      <c r="V24" s="38" t="str">
+        <f>GetLatitude(U24)</f>
+        <v>40.4718609</v>
+      </c>
+      <c r="W24" s="39" t="str">
+        <f>GetLongitude(U24)</f>
+        <v>-3.6892258</v>
       </c>
       <c r="X24" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3961566, -3.6498509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="63" x14ac:dyDescent="0.2">
+        <v>40.4718609, -3.6892258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C25" s="32">
-        <v>914719719</v>
+        <v>911684483</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>534</v>
+        <v>324</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="G25" s="32">
-        <v>28019</v>
+        <v>28023</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>407</v>
+        <v>185</v>
       </c>
       <c r="I25" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>408</v>
+        <v>154</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>409</v>
+        <v>155</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33" t="s">
-        <v>801</v>
+        <v>156</v>
       </c>
       <c r="N25" s="33" t="s">
         <v>95</v>
@@ -7719,124 +7723,124 @@
         <v>11</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>538</v>
+        <v>325</v>
       </c>
       <c r="S25" s="33"/>
       <c r="T25" s="37" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="U25" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE MANUEL FERNANDEZ CABALLERO, 4, 28019, MADRID</v>
-      </c>
-      <c r="V25" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.3976895</v>
-      </c>
-      <c r="W25" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.7189190</v>
+        <f>"" &amp; $F25 &amp; ", " &amp; $G25 &amp; ", " &amp; $I25</f>
+        <v>CALLE ARANZUEQUE, 3, 28023, MADRID</v>
+      </c>
+      <c r="V25" s="38" t="str">
+        <f>GetLatitude(U25)</f>
+        <v>40.4613341</v>
+      </c>
+      <c r="W25" s="39" t="str">
+        <f>GetLongitude(U25)</f>
+        <v>-3.7884302</v>
       </c>
       <c r="X25" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3976895, -3.7189190</v>
+        <v>40.4613341, -3.7884302</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="C26" s="32">
-        <v>914672726</v>
+        <v>915531873</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>841</v>
+        <v>328</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>842</v>
+        <v>685</v>
       </c>
       <c r="G26" s="32">
-        <v>28045</v>
+        <v>28003</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>165</v>
+        <v>329</v>
       </c>
       <c r="I26" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>166</v>
+        <v>894</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33" t="s">
-        <v>353</v>
+        <v>787</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O26" s="33" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>168</v>
+        <v>764</v>
       </c>
       <c r="R26" s="33" t="s">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="S26" s="33"/>
       <c r="T26" s="37" t="s">
-        <v>1030</v>
+        <v>809</v>
       </c>
       <c r="U26" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE CÁCERES, 10 1º DERECHA, 28045, MADRID</v>
-      </c>
-      <c r="V26" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.3986780</v>
-      </c>
-      <c r="W26" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.6957440</v>
+        <f>"" &amp; $F26 &amp; ", " &amp; $G26 &amp; ", " &amp; $I26</f>
+        <v>CALLE SANTA ENGRACIA, 140, 28003, MADRID</v>
+      </c>
+      <c r="V26" s="38" t="str">
+        <f>GetLatitude(U26)</f>
+        <v>40.4436353</v>
+      </c>
+      <c r="W26" s="39" t="str">
+        <f>GetLongitude(U26)</f>
+        <v>-3.7022263</v>
       </c>
       <c r="X26" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3986780, -3.6957440</v>
+        <v>40.4436353, -3.7022263</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>655</v>
+        <v>618</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="C27" s="32">
-        <v>6277005011</v>
+        <v>915211174</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>499</v>
+        <v>333</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>541</v>
+        <v>334</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="G27" s="32">
         <v>28012</v>
@@ -7855,142 +7859,132 @@
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33" t="s">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="N27" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>775</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="Q27" s="33"/>
       <c r="R27" s="33" t="s">
-        <v>501</v>
+        <v>337</v>
       </c>
       <c r="S27" s="33"/>
       <c r="T27" s="37" t="s">
-        <v>824</v>
+        <v>338</v>
       </c>
       <c r="U27" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE DUQUE DE ALBA, 13 , 28012, MADRID</v>
-      </c>
-      <c r="V27" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.4116859</v>
-      </c>
-      <c r="W27" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.7062671</v>
+        <f>"" &amp; $F27 &amp; ", " &amp; $G27 &amp; ", " &amp; $I27</f>
+        <v>CALLE ESPARTEROS, 1, 3º, 5ª, 28012, MADRID</v>
+      </c>
+      <c r="V27" s="38" t="str">
+        <f>GetLatitude(U27)</f>
+        <v>40.4163611</v>
+      </c>
+      <c r="W27" s="39" t="str">
+        <f>GetLongitude(U27)</f>
+        <v>-3.7049219</v>
       </c>
       <c r="X27" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4116859, -3.7062671</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.4163611, -3.7049219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="C28" s="32">
-        <v>913802721</v>
+        <v>339</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>701</v>
+        <v>340</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>1063</v>
+        <v>341</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>691</v>
-      </c>
-      <c r="G28" s="32">
-        <v>28038</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="G28" s="32"/>
       <c r="H28" s="33" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="I28" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>414</v>
+        <v>895</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="L28" s="33"/>
       <c r="M28" s="33" t="s">
-        <v>416</v>
+        <v>788</v>
       </c>
       <c r="N28" s="33" t="s">
         <v>106</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>908</v>
+        <v>765</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>417</v>
+        <v>345</v>
       </c>
       <c r="S28" s="33"/>
       <c r="T28" s="37" t="s">
-        <v>814</v>
-      </c>
-      <c r="U28" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE ANDALUCES, 22 POST., 28038, MADRID</v>
-      </c>
-      <c r="V28" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.3900276</v>
-      </c>
-      <c r="W28" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.6377506</v>
-      </c>
-      <c r="X28" s="33" t="str">
-        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3900276, -3.6377506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="75.599999999999994" x14ac:dyDescent="0.2">
+        <v>1036</v>
+      </c>
+      <c r="U28" s="33"/>
+      <c r="V28" s="38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="W28" s="39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="X28" s="33" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>488</v>
+        <v>837</v>
       </c>
       <c r="C29" s="32">
-        <v>634126582</v>
+        <v>918780905</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>489</v>
+        <v>346</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>546</v>
+        <v>347</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="G29" s="32">
-        <v>28015</v>
+        <v>28013</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="I29" s="33" t="s">
         <v>85</v>
@@ -8003,142 +7997,142 @@
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="33" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O29" s="33" t="s">
         <v>308</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>490</v>
+        <v>348</v>
       </c>
       <c r="S29" s="33"/>
       <c r="T29" s="37" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="U29" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE MELENDEZ VALDÉS, 52. 1ºD., 28015, MADRID</v>
-      </c>
-      <c r="V29" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.4330995</v>
-      </c>
-      <c r="W29" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.7148813</v>
+        <f>"" &amp; $F29 &amp; ", " &amp; $G29 &amp; ", " &amp; $I29</f>
+        <v>CALLE MONTERA, 24, 2 O, 28013, MADRID</v>
+      </c>
+      <c r="V29" s="38" t="str">
+        <f>GetLatitude(U29)</f>
+        <v>40.4185112</v>
+      </c>
+      <c r="W29" s="39" t="str">
+        <f>GetLongitude(U29)</f>
+        <v>-3.7019337</v>
       </c>
       <c r="X29" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4330995, -3.7148813</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="126" x14ac:dyDescent="0.2">
+        <v>40.4185112, -3.7019337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="C30" s="32">
-        <v>671054528</v>
+        <v>917975354</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>1063</v>
+        <v>531</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="G30" s="32">
-        <v>28012</v>
+        <v>28021</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="I30" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="33" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="S30" s="33"/>
       <c r="T30" s="37" t="s">
-        <v>812</v>
+        <v>355</v>
       </c>
       <c r="U30" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE PROVISIONES, 14 LOCAL, 28012, MADRID</v>
-      </c>
-      <c r="V30" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.4069860</v>
-      </c>
-      <c r="W30" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.7029017</v>
+        <f>"" &amp; $F30 &amp; ", " &amp; $G30 &amp; ", " &amp; $I30</f>
+        <v>CALLE ROMERAL, 12 , 28021, MADRID</v>
+      </c>
+      <c r="V30" s="38" t="str">
+        <f>GetLatitude(U30)</f>
+        <v>40.3491067</v>
+      </c>
+      <c r="W30" s="39" t="str">
+        <f>GetLongitude(U30)</f>
+        <v>-3.6970806</v>
       </c>
       <c r="X30" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4069860, -3.7029017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.3491067, -3.6970806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>836</v>
+        <v>356</v>
       </c>
       <c r="C31" s="32">
-        <v>911684483</v>
+        <v>639902518</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>324</v>
+        <v>1062</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>853</v>
+        <v>676</v>
       </c>
       <c r="G31" s="32">
-        <v>28029</v>
+        <v>28013</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>85</v>
@@ -8151,258 +8145,262 @@
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="33" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="N31" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O31" s="33" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="33" t="s">
-        <v>763</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="Q31" s="33"/>
       <c r="R31" s="33" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="S31" s="33"/>
       <c r="T31" s="37" t="s">
-        <v>808</v>
+        <v>1037</v>
       </c>
       <c r="U31" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE SAN AQUILINO, 27 , 28029, MADRID</v>
-      </c>
-      <c r="V31" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.4718609</v>
-      </c>
-      <c r="W31" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.6892258</v>
+        <f>"" &amp; $F31 &amp; ", " &amp; $G31 &amp; ", " &amp; $I31</f>
+        <v>CALLE MAYOR 21, 1º IZQ, 28013, MADRID</v>
+      </c>
+      <c r="V31" s="38" t="str">
+        <f>GetLatitude(U31)</f>
+        <v>40.4162280</v>
+      </c>
+      <c r="W31" s="39" t="str">
+        <f>GetLongitude(U31)</f>
+        <v>-3.7066150</v>
       </c>
       <c r="X31" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4718609, -3.6892258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.4162280, -3.7066150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>836</v>
+        <v>359</v>
       </c>
       <c r="C32" s="32">
-        <v>911684483</v>
+        <v>914424991</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="G32" s="32">
-        <v>28023</v>
+        <v>28015</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="I32" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L32" s="33"/>
       <c r="M32" s="33" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="N32" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>62</v>
+        <v>363</v>
       </c>
       <c r="P32" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="S32" s="33"/>
       <c r="T32" s="37" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="U32" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE ARANZUEQUE, 3, 28023, MADRID</v>
-      </c>
-      <c r="V32" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.4613341</v>
-      </c>
-      <c r="W32" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.7884302</v>
+        <f>"" &amp; $F32 &amp; ", " &amp; $G32 &amp; ", " &amp; $I32</f>
+        <v>CALLE SAN BERNARDO, 120 1º IZQ C, 28015, MADRID</v>
+      </c>
+      <c r="V32" s="38" t="str">
+        <f>GetLatitude(U32)</f>
+        <v>40.4323053</v>
+      </c>
+      <c r="W32" s="39" t="str">
+        <f>GetLongitude(U32)</f>
+        <v>-3.7046772</v>
       </c>
       <c r="X32" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4613341, -3.7884302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4323053, -3.7046772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="C33" s="32">
-        <v>912244837</v>
+        <v>676553906</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>319</v>
+        <v>532</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>684</v>
+        <v>858</v>
       </c>
       <c r="G33" s="32">
-        <v>28039</v>
+        <v>28014</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="I33" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>904</v>
+        <v>128</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="33" t="s">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c r="N33" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="R33" s="33"/>
+        <v>368</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>369</v>
+      </c>
       <c r="S33" s="33"/>
       <c r="T33" s="37" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="U33" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v>CALLE AGUILAR DE CAMPOO, 13 POSTERIOR, 28039, MADRID</v>
-      </c>
-      <c r="V33" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>40.4635373</v>
-      </c>
-      <c r="W33" s="36" t="str">
-        <f t="shared" si="6"/>
-        <v>-3.7188877</v>
+        <f>"" &amp; $F33 &amp; ", " &amp; $G33 &amp; ", " &amp; $I33</f>
+        <v>CALLE LOPE DE VEGA, 45, 28014, MADRID</v>
+      </c>
+      <c r="V33" s="38" t="str">
+        <f>GetLatitude(U33)</f>
+        <v>40.4138278</v>
+      </c>
+      <c r="W33" s="39" t="str">
+        <f>GetLongitude(U33)</f>
+        <v>-3.6952302</v>
       </c>
       <c r="X33" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4635373, -3.7188877</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.4138278, -3.6952302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="C34" s="32">
-        <v>680995764</v>
+        <v>915704428</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>91</v>
+        <v>371</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="G34" s="32">
-        <v>28803</v>
+        <v>28039</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L34" s="33"/>
       <c r="M34" s="33" t="s">
-        <v>780</v>
+        <v>335</v>
       </c>
       <c r="N34" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O34" s="33" t="s">
-        <v>96</v>
+        <v>363</v>
       </c>
       <c r="P34" s="33" t="s">
         <v>97</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>734</v>
+        <v>401</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="S34" s="33"/>
       <c r="T34" s="37" t="s">
-        <v>803</v>
-      </c>
-      <c r="U34" s="33" t="s">
-        <v>779</v>
-      </c>
-      <c r="V34" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="W34" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="X34" s="33" t="s">
-        <v>884</v>
+        <v>1039</v>
+      </c>
+      <c r="U34" s="33" t="str">
+        <f>"" &amp; $F34 &amp; ", " &amp; $G34 &amp; ", " &amp; $I34</f>
+        <v>CALLE FRAY JUNÍPERO SERRA, 43 ESC 2, 3, 28039, MADRID</v>
+      </c>
+      <c r="V34" s="38" t="str">
+        <f>GetLatitude(U34)</f>
+        <v>40.4653751</v>
+      </c>
+      <c r="W34" s="39" t="str">
+        <f>GetLongitude(U34)</f>
+        <v>-3.6996119</v>
+      </c>
+      <c r="X34" s="33" t="str">
+        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
+        <v>40.4653751, -3.6996119</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
@@ -8461,15 +8459,15 @@
         <v>811</v>
       </c>
       <c r="U35" s="33" t="str">
-        <f t="shared" ref="U35:U62" si="7">"" &amp; $F35 &amp; ", " &amp; $G35 &amp; ", " &amp; $I35</f>
+        <f>"" &amp; $F35 &amp; ", " &amp; $G35 &amp; ", " &amp; $I35</f>
         <v>CALLE SANCHO DÁVILA, 19, 28028, MADRID</v>
       </c>
-      <c r="V35" s="33" t="str">
-        <f t="shared" ref="V35:V56" si="8">GetLatitude(U35)</f>
+      <c r="V35" s="38" t="str">
+        <f>GetLatitude(U35)</f>
         <v>40.4270388</v>
       </c>
-      <c r="W35" s="36" t="str">
-        <f t="shared" ref="W35:W56" si="9">GetLongitude(U35)</f>
+      <c r="W35" s="39" t="str">
+        <f>GetLongitude(U35)</f>
         <v>-3.6616506</v>
       </c>
       <c r="X35" s="33" t="str">
@@ -8477,194 +8475,194 @@
         <v>40.4270388, -3.6616506</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="100.8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="C36" s="32">
-        <v>914454169</v>
+        <v>626274495</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>535</v>
+        <v>1062</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>693</v>
+        <v>861</v>
       </c>
       <c r="G36" s="32">
-        <v>28010</v>
+        <v>28043</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="I36" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>435</v>
+        <v>166</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>436</v>
+        <v>167</v>
       </c>
       <c r="L36" s="33"/>
       <c r="M36" s="33" t="s">
-        <v>795</v>
+        <v>362</v>
       </c>
       <c r="N36" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O36" s="33" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P36" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="S36" s="33"/>
       <c r="T36" s="37" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="U36" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE JOSÉ MARAÑÓN, 15-E, 28010, MADRID</v>
-      </c>
-      <c r="V36" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4293290</v>
-      </c>
-      <c r="W36" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6967688</v>
+        <f>"" &amp; $F36 &amp; ", " &amp; $G36 &amp; ", " &amp; $I36</f>
+        <v>CALLE SILVANO, 150, 28043, MADRID</v>
+      </c>
+      <c r="V36" s="38" t="str">
+        <f>GetLatitude(U36)</f>
+        <v>40.4624936</v>
+      </c>
+      <c r="W36" s="39" t="str">
+        <f>GetLongitude(U36)</f>
+        <v>-3.6290532</v>
       </c>
       <c r="X36" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4293290, -3.6967688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.4624936, -3.6290532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="C37" s="32">
-        <v>917087074</v>
+        <v>917868384</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>867</v>
+        <v>687</v>
       </c>
       <c r="G37" s="32">
-        <v>28029</v>
+        <v>28053</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="I37" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>415</v>
+        <v>167</v>
       </c>
       <c r="L37" s="33"/>
       <c r="M37" s="33" t="s">
-        <v>793</v>
+        <v>362</v>
       </c>
       <c r="N37" s="33" t="s">
         <v>106</v>
       </c>
       <c r="O37" s="33" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="P37" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="33" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="R37" s="33" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="S37" s="33"/>
       <c r="T37" s="37" t="s">
-        <v>833</v>
+        <v>1040</v>
       </c>
       <c r="U37" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE BASCONES, 21, 28029, MADRID</v>
-      </c>
-      <c r="V37" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4683947</v>
-      </c>
-      <c r="W37" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6956819</v>
+        <f>"" &amp; $F37 &amp; ", " &amp; $G37 &amp; ", " &amp; $I37</f>
+        <v>CALLE SANTANDERINA, 4, 28053, MADRID</v>
+      </c>
+      <c r="V37" s="38" t="str">
+        <f>GetLatitude(U37)</f>
+        <v>40.3739519</v>
+      </c>
+      <c r="W37" s="39" t="str">
+        <f>GetLongitude(U37)</f>
+        <v>-3.6592225</v>
       </c>
       <c r="X37" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4683947, -3.6956819</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="163.80000000000001" x14ac:dyDescent="0.2">
+        <v>40.3739519, -3.6592225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="C38" s="32">
-        <v>917087074</v>
+        <v>915076281</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>868</v>
+        <v>688</v>
       </c>
       <c r="G38" s="32">
-        <v>28029</v>
+        <v>28053</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="I38" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="33" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O38" s="33" t="s">
         <v>242</v>
@@ -8673,198 +8671,196 @@
         <v>11</v>
       </c>
       <c r="Q38" s="33" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="R38" s="33" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="S38" s="33"/>
       <c r="T38" s="37" t="s">
-        <v>1043</v>
+        <v>830</v>
       </c>
       <c r="U38" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE MORANDO, 18 , 28029, MADRID</v>
-      </c>
-      <c r="V38" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4688718</v>
-      </c>
-      <c r="W38" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6971314</v>
+        <f>"" &amp; $F38 &amp; ", " &amp; $G38 &amp; ", " &amp; $I38</f>
+        <v>CALLE AVELINO FERNADEZ DE LA POZA, 55, 28053, MADRID</v>
+      </c>
+      <c r="V38" s="38" t="str">
+        <f>GetLatitude(U38)</f>
+        <v>40.3828891</v>
+      </c>
+      <c r="W38" s="39" t="str">
+        <f>GetLongitude(U38)</f>
+        <v>-3.6738714</v>
       </c>
       <c r="X38" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4688718, -3.6971314</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.3828891, -3.6738714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>199</v>
+        <v>391</v>
       </c>
       <c r="C39" s="32">
-        <v>918286978</v>
+        <v>677220379</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>203</v>
+        <v>533</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>682</v>
+        <v>862</v>
       </c>
       <c r="G39" s="32">
-        <v>28005</v>
+        <v>28053</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="I39" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
       <c r="L39" s="33"/>
       <c r="M39" s="33" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="N39" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O39" s="33" t="s">
-        <v>62</v>
+        <v>755</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="33" t="s">
-        <v>737</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="Q39" s="33"/>
       <c r="R39" s="33" t="s">
-        <v>215</v>
+        <v>394</v>
       </c>
       <c r="S39" s="33"/>
       <c r="T39" s="37" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="U39" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE ARQUITECTURA 15 DUPLICADO, 28005, MADRID</v>
-      </c>
-      <c r="V39" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.3991868</v>
-      </c>
-      <c r="W39" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7019980</v>
+        <f>"" &amp; $F39 &amp; ", " &amp; $G39 &amp; ", " &amp; $I39</f>
+        <v>CALLE RUIDERA, 10 BAJO, 28053, MADRID</v>
+      </c>
+      <c r="V39" s="38" t="str">
+        <f>GetLatitude(U39)</f>
+        <v>40.3812600</v>
+      </c>
+      <c r="W39" s="39" t="str">
+        <f>GetLongitude(U39)</f>
+        <v>-3.6744000</v>
       </c>
       <c r="X39" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3991868, -3.7019980</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.3812600, -3.6744000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="126" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C40" s="32">
-        <v>915076281</v>
+        <v>671054528</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>388</v>
+        <v>1062</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>688</v>
+        <v>863</v>
       </c>
       <c r="G40" s="32">
-        <v>28053</v>
+        <v>28012</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="I40" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>897</v>
+        <v>128</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>389</v>
+        <v>129</v>
       </c>
       <c r="L40" s="33"/>
       <c r="M40" s="33" t="s">
-        <v>789</v>
+        <v>176</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O40" s="33" t="s">
         <v>242</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="Q40" s="33" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="R40" s="33" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="S40" s="33"/>
       <c r="T40" s="37" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="U40" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE AVELINO FERNADEZ DE LA POZA, 55, 28053, MADRID</v>
-      </c>
-      <c r="V40" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.3828891</v>
-      </c>
-      <c r="W40" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6738714</v>
+        <f>"" &amp; $F40 &amp; ", " &amp; $G40 &amp; ", " &amp; $I40</f>
+        <v>CALLE PROVISIONES, 14 LOCAL, 28012, MADRID</v>
+      </c>
+      <c r="V40" s="38" t="str">
+        <f>GetLatitude(U40)</f>
+        <v>40.4069860</v>
+      </c>
+      <c r="W40" s="39" t="str">
+        <f>GetLongitude(U40)</f>
+        <v>-3.7029017</v>
       </c>
       <c r="X40" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3828891, -3.6738714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.4069860, -3.7029017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>495</v>
+        <v>399</v>
       </c>
       <c r="C41" s="32">
-        <v>634143839</v>
+        <v>915398704</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>496</v>
+        <v>400</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G41" s="32">
         <v>28012</v>
@@ -8876,666 +8872,670 @@
         <v>85</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>901</v>
+        <v>166</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>907</v>
+        <v>167</v>
       </c>
       <c r="L41" s="33"/>
       <c r="M41" s="33" t="s">
-        <v>802</v>
+        <v>353</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O41" s="33" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="P41" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="33" t="s">
-        <v>753</v>
+        <v>401</v>
       </c>
       <c r="R41" s="33" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="S41" s="33"/>
       <c r="T41" s="37" t="s">
-        <v>823</v>
+        <v>1031</v>
       </c>
       <c r="U41" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE EMBAJADORES, 52, 28012, MADRID</v>
-      </c>
-      <c r="V41" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4081110</v>
-      </c>
-      <c r="W41" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7045830</v>
+        <f>"" &amp; $F41 &amp; ", " &amp; $G41 &amp; ", " &amp; $I41</f>
+        <v>CALLE EMBAJADORES, 37 POSTERIOR, LOCAL., 28012, MADRID</v>
+      </c>
+      <c r="V41" s="38" t="str">
+        <f>GetLatitude(U41)</f>
+        <v>40.3961566</v>
+      </c>
+      <c r="W41" s="39" t="str">
+        <f>GetLongitude(U41)</f>
+        <v>-3.6498509</v>
       </c>
       <c r="X41" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4081110, -3.7045830</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.3961566, -3.6498509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>418</v>
+        <v>838</v>
       </c>
       <c r="C42" s="32">
-        <v>915417065</v>
+        <v>679367339</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>866</v>
+        <v>689</v>
       </c>
       <c r="G42" s="32">
-        <v>28037</v>
+        <v>28009</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="I42" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>906</v>
+        <v>154</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>422</v>
+        <v>155</v>
       </c>
       <c r="L42" s="33"/>
       <c r="M42" s="33" t="s">
-        <v>791</v>
+        <v>335</v>
       </c>
       <c r="N42" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="O42" s="33" t="s">
-        <v>68</v>
-      </c>
+      <c r="O42" s="33"/>
       <c r="P42" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="33" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="R42" s="33" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="S42" s="33"/>
       <c r="T42" s="37" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U42" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE VIRGEN DE LA OLIVA, 69-71, 28037, MADRID</v>
-      </c>
-      <c r="V42" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4316130</v>
-      </c>
-      <c r="W42" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6243748</v>
+        <f>"" &amp; $F42 &amp; ", " &amp; $G42 &amp; ", " &amp; $I42</f>
+        <v>PASEO JULIO ROMERO DE TORRES S/N PARQUE DEL RETIRO, 28009, MADRID</v>
+      </c>
+      <c r="V42" s="38" t="str">
+        <f>GetLatitude(U42)</f>
+        <v>40.4152606</v>
+      </c>
+      <c r="W42" s="39" t="str">
+        <f>GetLongitude(U42)</f>
+        <v>-3.6844995</v>
       </c>
       <c r="X42" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4316130, -3.6243748</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="126" x14ac:dyDescent="0.2">
+        <v>40.4152606, -3.6844995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="63" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>431</v>
+        <v>839</v>
       </c>
       <c r="C43" s="32">
-        <v>910115565</v>
+        <v>914719719</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>1063</v>
+        <v>406</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>432</v>
+        <v>534</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="G43" s="32">
-        <v>28012</v>
+        <v>28019</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>102</v>
+        <v>407</v>
       </c>
       <c r="I43" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>129</v>
+        <v>409</v>
       </c>
       <c r="L43" s="33"/>
       <c r="M43" s="33" t="s">
-        <v>176</v>
+        <v>801</v>
       </c>
       <c r="N43" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O43" s="33" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="P43" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="33" t="s">
-        <v>674</v>
+        <v>744</v>
       </c>
       <c r="R43" s="33" t="s">
-        <v>675</v>
+        <v>538</v>
       </c>
       <c r="S43" s="33"/>
       <c r="T43" s="37" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="U43" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE OLIVAR, 1 (BIS) LOCALES, 28012, MADRID</v>
-      </c>
-      <c r="V43" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4078118</v>
-      </c>
-      <c r="W43" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7007321</v>
+        <f>"" &amp; $F43 &amp; ", " &amp; $G43 &amp; ", " &amp; $I43</f>
+        <v>CALLE MANUEL FERNANDEZ CABALLERO, 4, 28019, MADRID</v>
+      </c>
+      <c r="V43" s="38" t="str">
+        <f>GetLatitude(U43)</f>
+        <v>40.3976895</v>
+      </c>
+      <c r="W43" s="39" t="str">
+        <f>GetLongitude(U43)</f>
+        <v>-3.7189190</v>
       </c>
       <c r="X43" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4078118, -3.7007321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="50.4" x14ac:dyDescent="0.2">
+        <v>40.3976895, -3.7189190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="C44" s="32">
-        <v>635736573</v>
+        <v>683280312</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>160</v>
+        <v>411</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>1063</v>
+        <v>412</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>846</v>
+        <v>690</v>
       </c>
       <c r="G44" s="32">
-        <v>28029</v>
+        <v>28007</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>161</v>
+        <v>342</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>892</v>
+        <v>166</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L44" s="33"/>
       <c r="M44" s="33" t="s">
-        <v>800</v>
+        <v>353</v>
       </c>
       <c r="N44" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>68</v>
+        <v>344</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="33"/>
       <c r="R44" s="33"/>
       <c r="S44" s="33"/>
       <c r="T44" s="37"/>
       <c r="U44" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE BETANZOS, 37, 28029, MADRID</v>
-      </c>
-      <c r="V44" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4746269</v>
-      </c>
-      <c r="W44" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7114436</v>
+        <f>"" &amp; $F44 &amp; ", " &amp; $G44 &amp; ", " &amp; $I44</f>
+        <v>CALLE GANDÍA, N.1 - LOCAL 9A, 28007, MADRID</v>
+      </c>
+      <c r="V44" s="38" t="str">
+        <f>GetLatitude(U44)</f>
+        <v>40.4492940</v>
+      </c>
+      <c r="W44" s="39" t="str">
+        <f>GetLongitude(U44)</f>
+        <v>-3.6601051</v>
       </c>
       <c r="X44" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4746269, -3.7114436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4492940, -3.6601051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="C45" s="32">
-        <v>915390238</v>
+        <v>913802721</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>461</v>
+        <v>701</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>462</v>
+        <v>1062</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G45" s="32">
-        <v>28005</v>
+        <v>28038</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="I45" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J45" s="33" t="s">
-        <v>756</v>
+        <v>414</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="L45" s="33"/>
       <c r="M45" s="33" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="N45" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O45" s="33" t="s">
         <v>308</v>
       </c>
       <c r="P45" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q45" s="33"/>
+        <v>97</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>907</v>
+      </c>
       <c r="R45" s="33" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="S45" s="33"/>
       <c r="T45" s="37" t="s">
-        <v>1044</v>
+        <v>814</v>
       </c>
       <c r="U45" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE RIBERA DE CURTIDORES, 3 LOCAL 8, 28005, MADRID</v>
-      </c>
-      <c r="V45" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4088215</v>
-      </c>
-      <c r="W45" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7074530</v>
+        <f>"" &amp; $F45 &amp; ", " &amp; $G45 &amp; ", " &amp; $I45</f>
+        <v>CALLE ANDALUCES, 22 POST., 28038, MADRID</v>
+      </c>
+      <c r="V45" s="38" t="str">
+        <f>GetLatitude(U45)</f>
+        <v>40.3900276</v>
+      </c>
+      <c r="W45" s="39" t="str">
+        <f>GetLongitude(U45)</f>
+        <v>-3.6377506</v>
       </c>
       <c r="X45" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4088215, -3.7074530</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="88.2" x14ac:dyDescent="0.2">
+        <v>40.3900276, -3.6377506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="C46" s="32">
-        <v>915930540</v>
+        <v>915417065</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>536</v>
+        <v>420</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>697</v>
+        <v>866</v>
       </c>
       <c r="G46" s="32">
-        <v>28015</v>
+        <v>28037</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="I46" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>154</v>
+        <v>905</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="L46" s="33"/>
       <c r="M46" s="33" t="s">
-        <v>156</v>
+        <v>791</v>
       </c>
       <c r="N46" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="P46" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="33" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="R46" s="33" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="S46" s="33"/>
       <c r="T46" s="37" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="U46" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE MELENDEZ VALDÉS, 52. 1ºD., 28015, MADRID</v>
-      </c>
-      <c r="V46" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4330995</v>
-      </c>
-      <c r="W46" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7148813</v>
+        <f>"" &amp; $F46 &amp; ", " &amp; $G46 &amp; ", " &amp; $I46</f>
+        <v>CALLE VIRGEN DE LA OLIVA, 69-71, 28037, MADRID</v>
+      </c>
+      <c r="V46" s="38" t="str">
+        <f>GetLatitude(U46)</f>
+        <v>40.4316130</v>
+      </c>
+      <c r="W46" s="39" t="str">
+        <f>GetLongitude(U46)</f>
+        <v>-3.6243748</v>
       </c>
       <c r="X46" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4330995, -3.7148813</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.4316130, -3.6243748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C47" s="32">
-        <v>683280312</v>
+        <v>915392036</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G47" s="32">
-        <v>28007</v>
+        <v>28045</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>342</v>
+        <v>165</v>
       </c>
       <c r="I47" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>166</v>
+        <v>898</v>
       </c>
       <c r="K47" s="33" t="s">
-        <v>167</v>
+        <v>426</v>
       </c>
       <c r="L47" s="33"/>
       <c r="M47" s="33" t="s">
-        <v>353</v>
+        <v>792</v>
       </c>
       <c r="N47" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O47" s="33" t="s">
-        <v>344</v>
+        <v>68</v>
       </c>
       <c r="P47" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q47" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="Q47" s="33" t="s">
+        <v>746</v>
+      </c>
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
-      <c r="T47" s="37"/>
+      <c r="T47" s="37" t="s">
+        <v>832</v>
+      </c>
       <c r="U47" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE GANDÍA, N.1 - LOCAL 9A, 28007, MADRID</v>
-      </c>
-      <c r="V47" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4492940</v>
-      </c>
-      <c r="W47" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6601051</v>
+        <f>"" &amp; $F47 &amp; ", " &amp; $G47 &amp; ", " &amp; $I47</f>
+        <v>PASEO DE NTRA. SRA. DE LAS DELICIAS, 61, 28045, MADRID</v>
+      </c>
+      <c r="V47" s="38" t="str">
+        <f>GetLatitude(U47)</f>
+        <v>40.4002336</v>
+      </c>
+      <c r="W47" s="39" t="str">
+        <f>GetLongitude(U47)</f>
+        <v>-3.6937959</v>
       </c>
       <c r="X47" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4492940, -3.6601051</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.4002336, -3.6937959</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
-        <v>595</v>
+        <v>639</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="C48" s="32">
-        <v>915220070</v>
+        <v>917087074</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="G48" s="32">
-        <v>28004</v>
+        <v>28029</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>103</v>
+        <v>414</v>
       </c>
       <c r="K48" s="33" t="s">
-        <v>104</v>
+        <v>415</v>
       </c>
       <c r="L48" s="33"/>
       <c r="M48" s="33" t="s">
-        <v>105</v>
+        <v>793</v>
       </c>
       <c r="N48" s="33" t="s">
         <v>106</v>
       </c>
       <c r="O48" s="33" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="P48" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="33" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="R48" s="33" t="s">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="S48" s="33"/>
       <c r="T48" s="37" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="U48" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CORREDERA BAJA DE SAN PABLO, 16, 28004, MADRID</v>
-      </c>
-      <c r="V48" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4226654</v>
-      </c>
-      <c r="W48" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7034987</v>
+        <f>"" &amp; $F48 &amp; ", " &amp; $G48 &amp; ", " &amp; $I48</f>
+        <v>CALLE BASCONES, 21, 28029, MADRID</v>
+      </c>
+      <c r="V48" s="38" t="str">
+        <f>GetLatitude(U48)</f>
+        <v>40.4683947</v>
+      </c>
+      <c r="W48" s="39" t="str">
+        <f>GetLongitude(U48)</f>
+        <v>-3.6956819</v>
       </c>
       <c r="X48" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4226654, -3.7034987</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="63" x14ac:dyDescent="0.2">
+        <v>40.4683947, -3.6956819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="163.80000000000001" x14ac:dyDescent="0.2">
       <c r="A49" s="32" t="s">
-        <v>596</v>
+        <v>640</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="C49" s="32">
-        <v>915220070</v>
+        <v>917087074</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="G49" s="32">
-        <v>28004</v>
+        <v>28029</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="I49" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>108</v>
+        <v>429</v>
       </c>
       <c r="L49" s="33"/>
       <c r="M49" s="33" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="N49" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O49" s="33" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="P49" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="33" t="s">
-        <v>109</v>
+        <v>748</v>
       </c>
       <c r="R49" s="33" t="s">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="S49" s="33"/>
       <c r="T49" s="37" t="s">
-        <v>805</v>
+        <v>1042</v>
       </c>
       <c r="U49" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CORREDERA BAJA DE SAN PABLO, 16, 28004, MADRID</v>
-      </c>
-      <c r="V49" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4226654</v>
-      </c>
-      <c r="W49" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7034987</v>
+        <f>"" &amp; $F49 &amp; ", " &amp; $G49 &amp; ", " &amp; $I49</f>
+        <v>CALLE MORANDO, 18 , 28029, MADRID</v>
+      </c>
+      <c r="V49" s="38" t="str">
+        <f>GetLatitude(U49)</f>
+        <v>40.4688718</v>
+      </c>
+      <c r="W49" s="39" t="str">
+        <f>GetLongitude(U49)</f>
+        <v>-3.6971314</v>
       </c>
       <c r="X49" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4226654, -3.7034987</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.4688718, -3.6971314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="126" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C50" s="32">
-        <v>914682859</v>
+        <v>910115565</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>440</v>
+        <v>1062</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>539</v>
+        <v>432</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G50" s="32">
-        <v>28005</v>
+        <v>28012</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="I50" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="L50" s="33"/>
       <c r="M50" s="33" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="N50" s="33" t="s">
         <v>95</v>
@@ -9544,196 +9544,204 @@
         <v>242</v>
       </c>
       <c r="P50" s="33" t="s">
-        <v>441</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="33" t="s">
-        <v>750</v>
+        <v>674</v>
       </c>
       <c r="R50" s="33" t="s">
-        <v>442</v>
+        <v>675</v>
       </c>
       <c r="S50" s="33"/>
       <c r="T50" s="37" t="s">
-        <v>443</v>
+        <v>816</v>
       </c>
       <c r="U50" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE CASINO, 12, 28005, MADRID</v>
-      </c>
-      <c r="V50" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4069284</v>
-      </c>
-      <c r="W50" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7051297</v>
+        <f>"" &amp; $F50 &amp; ", " &amp; $G50 &amp; ", " &amp; $I50</f>
+        <v>CALLE OLIVAR, 1 (BIS) LOCALES, 28012, MADRID</v>
+      </c>
+      <c r="V50" s="38" t="str">
+        <f>GetLatitude(U50)</f>
+        <v>40.4078118</v>
+      </c>
+      <c r="W50" s="39" t="str">
+        <f>GetLongitude(U50)</f>
+        <v>-3.7007321</v>
       </c>
       <c r="X50" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4069284, -3.7051297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4078118, -3.7007321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="C51" s="32">
-        <v>915211174</v>
+        <v>914454169</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>334</v>
+        <v>535</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>855</v>
+        <v>693</v>
       </c>
       <c r="G51" s="32">
-        <v>28012</v>
+        <v>28010</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="I51" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>154</v>
+        <v>435</v>
       </c>
       <c r="K51" s="33" t="s">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="L51" s="33"/>
       <c r="M51" s="33" t="s">
-        <v>335</v>
+        <v>795</v>
       </c>
       <c r="N51" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O51" s="33" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q51" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="Q51" s="33" t="s">
+        <v>749</v>
+      </c>
       <c r="R51" s="33" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="S51" s="33"/>
       <c r="T51" s="37" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="U51" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE ESPARTEROS, 1, 3º, 5ª, 28012, MADRID</v>
-      </c>
-      <c r="V51" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4163611</v>
-      </c>
-      <c r="W51" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7049219</v>
+        <f>"" &amp; $F51 &amp; ", " &amp; $G51 &amp; ", " &amp; $I51</f>
+        <v>CALLE JOSÉ MARAÑÓN, 15-E, 28010, MADRID</v>
+      </c>
+      <c r="V51" s="38" t="str">
+        <f>GetLatitude(U51)</f>
+        <v>40.4293290</v>
+      </c>
+      <c r="W51" s="39" t="str">
+        <f>GetLongitude(U51)</f>
+        <v>-3.6967688</v>
       </c>
       <c r="X51" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4163611, -3.7049219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.4293290, -3.6967688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>1063</v>
+        <v>439</v>
+      </c>
+      <c r="C52" s="32">
+        <v>914682859</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>183</v>
+        <v>440</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>184</v>
+        <v>539</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="G52" s="32">
-        <v>28020</v>
+        <v>28005</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="I52" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L52" s="33"/>
       <c r="M52" s="33" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="N52" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O52" s="33" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="P52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
+        <v>441</v>
+      </c>
+      <c r="Q52" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="R52" s="33" t="s">
+        <v>442</v>
+      </c>
       <c r="S52" s="33"/>
-      <c r="T52" s="37"/>
+      <c r="T52" s="37" t="s">
+        <v>443</v>
+      </c>
       <c r="U52" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE ANASTASIO HERRERO, 10, 28020, MADRID</v>
-      </c>
-      <c r="V52" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4566109</v>
-      </c>
-      <c r="W52" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.7009844</v>
+        <f>"" &amp; $F52 &amp; ", " &amp; $G52 &amp; ", " &amp; $I52</f>
+        <v>CALLE CASINO, 12, 28005, MADRID</v>
+      </c>
+      <c r="V52" s="38" t="str">
+        <f>GetLatitude(U52)</f>
+        <v>40.4069284</v>
+      </c>
+      <c r="W52" s="39" t="str">
+        <f>GetLongitude(U52)</f>
+        <v>-3.7051297</v>
       </c>
       <c r="X52" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4566109, -3.7009844</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.4069284, -3.7051297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>1063</v>
+        <v>444</v>
+      </c>
+      <c r="C53" s="32">
+        <v>655485241</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>174</v>
+        <v>702</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>848</v>
+        <v>694</v>
       </c>
       <c r="G53" s="32">
-        <v>28014</v>
+        <v>28013</v>
       </c>
       <c r="H53" s="33" t="s">
         <v>102</v>
@@ -9742,297 +9750,289 @@
         <v>85</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>128</v>
+        <v>508</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="L53" s="33"/>
       <c r="M53" s="33" t="s">
-        <v>176</v>
+        <v>796</v>
       </c>
       <c r="N53" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O53" s="33" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P53" s="33" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="Q53" s="33" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="R53" s="33" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="S53" s="33"/>
       <c r="T53" s="37" t="s">
-        <v>178</v>
+        <v>817</v>
       </c>
       <c r="U53" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE GOBERNADOR, 39, 28014, MADRID</v>
-      </c>
-      <c r="V53" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4115124</v>
-      </c>
-      <c r="W53" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6933957</v>
+        <f>"" &amp; $F53 &amp; ", " &amp; $G53 &amp; ", " &amp; $I53</f>
+        <v>CALLE SAN FELIPE NERI, 4 BAJO DCHA, 28013, MADRID</v>
+      </c>
+      <c r="V53" s="38" t="str">
+        <f>GetLatitude(U53)</f>
+        <v>40.4164559</v>
+      </c>
+      <c r="W53" s="39" t="str">
+        <f>GetLongitude(U53)</f>
+        <v>-3.7082778</v>
       </c>
       <c r="X53" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4115124, -3.6933957</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.4164559, -3.7082778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
       <c r="C54" s="32">
-        <v>913555550</v>
+        <v>622042564</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>140</v>
+        <v>449</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>142</v>
+        <v>450</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>847</v>
+        <v>695</v>
       </c>
       <c r="G54" s="32">
-        <v>28028</v>
+        <v>28034</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I54" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>154</v>
+        <v>899</v>
       </c>
       <c r="K54" s="33" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="L54" s="33"/>
       <c r="M54" s="33" t="s">
-        <v>156</v>
+        <v>452</v>
       </c>
       <c r="N54" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O54" s="33" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="P54" s="33" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="Q54" s="33" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="R54" s="33" t="s">
-        <v>158</v>
+        <v>454</v>
       </c>
       <c r="S54" s="33"/>
       <c r="T54" s="37" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="U54" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE BOCÁNGEL, 2, 28028, MADRID</v>
-      </c>
-      <c r="V54" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4298802</v>
-      </c>
-      <c r="W54" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6643317</v>
+        <f>"" &amp; $F54 &amp; ", " &amp; $G54 &amp; ", " &amp; $I54</f>
+        <v>CARRETERA DE COLMENAR KM 9,100, 28034, MADRID</v>
+      </c>
+      <c r="V54" s="38" t="str">
+        <f>GetLatitude(U54)</f>
+        <v>40.4876812</v>
+      </c>
+      <c r="W54" s="39" t="str">
+        <f>GetLongitude(U54)</f>
+        <v>-3.6945570</v>
       </c>
       <c r="X54" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4298802, -3.6643317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+        <v>40.4876812, -3.6945570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>116</v>
+        <v>455</v>
       </c>
       <c r="C55" s="32">
-        <v>644882198</v>
+        <v>658977641</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>117</v>
+        <v>456</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>119</v>
+        <v>540</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>678</v>
+        <v>871</v>
       </c>
       <c r="G55" s="32">
-        <v>28038</v>
+        <v>28005</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>128</v>
+        <v>457</v>
       </c>
       <c r="K55" s="33" t="s">
-        <v>129</v>
+        <v>458</v>
       </c>
       <c r="L55" s="33"/>
       <c r="M55" s="33" t="s">
-        <v>176</v>
+        <v>795</v>
       </c>
       <c r="N55" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O55" s="33" t="s">
-        <v>68</v>
+        <v>363</v>
       </c>
       <c r="P55" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="R55" s="33" t="s">
-        <v>529</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
       <c r="S55" s="33"/>
-      <c r="T55" s="37" t="s">
-        <v>530</v>
-      </c>
+      <c r="T55" s="37"/>
       <c r="U55" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE MONTSENY, 35 , 28038, MADRID</v>
-      </c>
-      <c r="V55" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4005434</v>
-      </c>
-      <c r="W55" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6624328</v>
+        <f>"" &amp; $F55 &amp; ", " &amp; $G55 &amp; ", " &amp; $I55</f>
+        <v>CALLE MARTIN DE VARGAS, 13 BAJO, 28005, MADRID</v>
+      </c>
+      <c r="V55" s="38" t="str">
+        <f>GetLatitude(U55)</f>
+        <v>40.4032538</v>
+      </c>
+      <c r="W55" s="39" t="str">
+        <f>GetLongitude(U55)</f>
+        <v>-3.7019884</v>
       </c>
       <c r="X55" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4005434, -3.6624328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.4032538, -3.7019884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="C56" s="32">
-        <v>912191157</v>
+        <v>915390238</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>877</v>
+        <v>696</v>
       </c>
       <c r="G56" s="32">
-        <v>28014</v>
+        <v>28005</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>342</v>
+        <v>102</v>
       </c>
       <c r="I56" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>902</v>
+        <v>756</v>
       </c>
       <c r="K56" s="33" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
       <c r="L56" s="33"/>
       <c r="M56" s="33" t="s">
-        <v>798</v>
+        <v>464</v>
       </c>
       <c r="N56" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O56" s="33" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="P56" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q56" s="33" t="s">
-        <v>518</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="Q56" s="33"/>
       <c r="R56" s="33" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="S56" s="33"/>
       <c r="T56" s="37" t="s">
-        <v>826</v>
+        <v>1043</v>
       </c>
       <c r="U56" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>PLAZA DE LAS LETRAS. CALLE ALAMEDA, 15, 28014, MADRID</v>
-      </c>
-      <c r="V56" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>40.4105268</v>
-      </c>
-      <c r="W56" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v>-3.6937908</v>
+        <f>"" &amp; $F56 &amp; ", " &amp; $G56 &amp; ", " &amp; $I56</f>
+        <v>CALLE RIBERA DE CURTIDORES, 3 LOCAL 8, 28005, MADRID</v>
+      </c>
+      <c r="V56" s="38" t="str">
+        <f>GetLatitude(U56)</f>
+        <v>40.4088215</v>
+      </c>
+      <c r="W56" s="39" t="str">
+        <f>GetLongitude(U56)</f>
+        <v>-3.7074530</v>
       </c>
       <c r="X56" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4105268, -3.6937908</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="75.599999999999994" x14ac:dyDescent="0.2">
+        <v>40.4088215, -3.7074530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>877</v>
-      </c>
-      <c r="G57" s="32">
-        <v>28014</v>
+        <v>1062</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="I57" s="33" t="s">
         <v>85</v>
@@ -10051,33 +10051,32 @@
         <v>106</v>
       </c>
       <c r="O57" s="33" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="P57" s="33" t="s">
-        <v>309</v>
+        <v>188</v>
       </c>
       <c r="Q57" s="33" t="s">
-        <v>754</v>
+        <v>473</v>
       </c>
       <c r="R57" s="33" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="S57" s="33"/>
       <c r="T57" s="37" t="s">
-        <v>827</v>
-      </c>
-      <c r="U57" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>PLAZA DE LAS LETRAS. CALLE ALAMEDA, 15, 28014, MADRID</v>
-      </c>
-      <c r="V57" s="39" t="s">
+        <v>475</v>
+      </c>
+      <c r="U57" s="33" t="s">
+        <v>1062</v>
+      </c>
+      <c r="V57" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W57" s="39" t="s">
         <v>1065</v>
       </c>
-      <c r="W57" s="38">
-        <v>-3693619</v>
-      </c>
       <c r="X57" s="33" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -10088,13 +10087,13 @@
         <v>476</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>477</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F58" s="36" t="s">
         <v>872</v>
@@ -10138,14 +10137,14 @@
         <v>819</v>
       </c>
       <c r="U58" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f>"" &amp; $F58 &amp; ", " &amp; $G58 &amp; ", " &amp; $I58</f>
         <v>CALLE CAÑIZARES, 3, 28012, MADRID</v>
       </c>
-      <c r="V58" s="33" t="str">
+      <c r="V58" s="38" t="str">
         <f>GetLatitude(U58)</f>
         <v>40.4129201</v>
       </c>
-      <c r="W58" s="36" t="str">
+      <c r="W58" s="39" t="str">
         <f>GetLongitude(U58)</f>
         <v>-3.7015657</v>
       </c>
@@ -10154,216 +10153,222 @@
         <v>40.4129201, -3.7015657</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>258</v>
+        <v>482</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>545</v>
+        <v>887</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>852</v>
-      </c>
-      <c r="G59" s="32">
-        <v>28005</v>
+        <v>1062</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I59" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>894</v>
+        <v>469</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>285</v>
+        <v>470</v>
       </c>
       <c r="L59" s="33"/>
       <c r="M59" s="33" t="s">
-        <v>785</v>
+        <v>471</v>
       </c>
       <c r="N59" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O59" s="33" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P59" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
+        <v>309</v>
+      </c>
+      <c r="Q59" s="33" t="s">
+        <v>752</v>
+      </c>
+      <c r="R59" s="33" t="s">
+        <v>484</v>
+      </c>
       <c r="S59" s="33"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE RIBERA DE CURTIDORES, 2, 28005, MADRID</v>
-      </c>
-      <c r="V59" s="33" t="str">
-        <f>GetLatitude(U59)</f>
-        <v>40.4091711</v>
-      </c>
-      <c r="W59" s="36" t="str">
-        <f>GetLongitude(U59)</f>
-        <v>-3.7074268</v>
-      </c>
-      <c r="X59" s="33" t="str">
-        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4091711, -3.7074268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="50.4" x14ac:dyDescent="0.2">
+      <c r="T59" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="U59" s="33" t="s">
+        <v>1062</v>
+      </c>
+      <c r="V59" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="W59" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="X59" s="33" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
       <c r="C60" s="32">
-        <v>677220379</v>
+        <v>915930540</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>862</v>
+        <v>697</v>
       </c>
       <c r="G60" s="32">
-        <v>28053</v>
+        <v>28015</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="I60" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>905</v>
+        <v>154</v>
       </c>
       <c r="K60" s="33" t="s">
-        <v>393</v>
+        <v>155</v>
       </c>
       <c r="L60" s="33"/>
       <c r="M60" s="33" t="s">
-        <v>790</v>
+        <v>156</v>
       </c>
       <c r="N60" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O60" s="33" t="s">
-        <v>755</v>
+        <v>308</v>
       </c>
       <c r="P60" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q60" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="Q60" s="33" t="s">
+        <v>772</v>
+      </c>
       <c r="R60" s="33" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
       <c r="S60" s="33"/>
       <c r="T60" s="37" t="s">
-        <v>1042</v>
+        <v>821</v>
       </c>
       <c r="U60" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>CALLE RUIDERA, 10 BAJO, 28053, MADRID</v>
-      </c>
-      <c r="V60" s="33" t="str">
+        <f>"" &amp; $F60 &amp; ", " &amp; $G60 &amp; ", " &amp; $I60</f>
+        <v>CALLE MELENDEZ VALDÉS, 52. 1ºD., 28015, MADRID</v>
+      </c>
+      <c r="V60" s="38" t="str">
         <f>GetLatitude(U60)</f>
-        <v>40.3812600</v>
-      </c>
-      <c r="W60" s="36" t="str">
+        <v>40.4330995</v>
+      </c>
+      <c r="W60" s="39" t="str">
         <f>GetLongitude(U60)</f>
-        <v>-3.6744000</v>
+        <v>-3.7148813</v>
       </c>
       <c r="X60" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.3812600, -3.6744000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4330995, -3.7148813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="C61" s="32">
-        <v>915392036</v>
+        <v>634126582</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>425</v>
+        <v>546</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="G61" s="32">
-        <v>28045</v>
+        <v>28015</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>165</v>
+        <v>329</v>
       </c>
       <c r="I61" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>899</v>
+        <v>154</v>
       </c>
       <c r="K61" s="33" t="s">
-        <v>426</v>
+        <v>155</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="33" t="s">
-        <v>792</v>
+        <v>156</v>
       </c>
       <c r="N61" s="33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O61" s="33" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="P61" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="33" t="s">
-        <v>746</v>
-      </c>
-      <c r="R61" s="33"/>
+        <v>773</v>
+      </c>
+      <c r="R61" s="33" t="s">
+        <v>490</v>
+      </c>
       <c r="S61" s="33"/>
       <c r="T61" s="37" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="U61" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>PASEO DE NTRA. SRA. DE LAS DELICIAS, 61, 28045, MADRID</v>
-      </c>
-      <c r="V61" s="33" t="str">
+        <f>"" &amp; $F61 &amp; ", " &amp; $G61 &amp; ", " &amp; $I61</f>
+        <v>CALLE MELENDEZ VALDÉS, 52. 1ºD., 28015, MADRID</v>
+      </c>
+      <c r="V61" s="38" t="str">
         <f>GetLatitude(U61)</f>
-        <v>40.4002336</v>
-      </c>
-      <c r="W61" s="36" t="str">
+        <v>40.4330995</v>
+      </c>
+      <c r="W61" s="39" t="str">
         <f>GetLongitude(U61)</f>
-        <v>-3.6937959</v>
+        <v>-3.7148813</v>
       </c>
       <c r="X61" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4002336, -3.6937959</v>
+        <v>40.4330995, -3.7148813</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -10380,7 +10385,7 @@
         <v>492</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F62" s="36" t="s">
         <v>873</v>
@@ -10424,14 +10429,14 @@
         <v>822</v>
       </c>
       <c r="U62" s="33" t="str">
-        <f t="shared" si="7"/>
+        <f>"" &amp; $F62 &amp; ", " &amp; $G62 &amp; ", " &amp; $I62</f>
         <v>CALLE DUQUE DE ALBA,13 LOCAL INTERIOR , 28012, MADRID</v>
       </c>
-      <c r="V62" s="33" t="str">
+      <c r="V62" s="38" t="str">
         <f>GetLatitude(U62)</f>
         <v>40.4260192</v>
       </c>
-      <c r="W62" s="36" t="str">
+      <c r="W62" s="39" t="str">
         <f>GetLongitude(U62)</f>
         <v>-3.6757971</v>
       </c>
@@ -10440,318 +10445,323 @@
         <v>40.4260192, -3.6757971</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>1063</v>
+        <v>495</v>
+      </c>
+      <c r="C63" s="32">
+        <v>634143839</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>1063</v>
+        <v>874</v>
+      </c>
+      <c r="G63" s="32">
+        <v>28012</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I63" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>469</v>
+        <v>900</v>
       </c>
       <c r="K63" s="33" t="s">
-        <v>470</v>
+        <v>906</v>
       </c>
       <c r="L63" s="33"/>
       <c r="M63" s="33" t="s">
-        <v>471</v>
+        <v>802</v>
       </c>
       <c r="N63" s="33" t="s">
         <v>106</v>
       </c>
       <c r="O63" s="33" t="s">
-        <v>472</v>
+        <v>75</v>
       </c>
       <c r="P63" s="33" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="33" t="s">
-        <v>473</v>
+        <v>753</v>
       </c>
       <c r="R63" s="33" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="S63" s="33"/>
       <c r="T63" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="U63" s="33" t="s">
-        <v>1063</v>
-      </c>
-      <c r="V63" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="W63" s="40" t="s">
-        <v>1067</v>
-      </c>
-      <c r="X63" s="33" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="100.8" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+      <c r="U63" s="33" t="str">
+        <f>"" &amp; $F63 &amp; ", " &amp; $G63 &amp; ", " &amp; $I63</f>
+        <v>CALLE EMBAJADORES, 52, 28012, MADRID</v>
+      </c>
+      <c r="V63" s="38" t="str">
+        <f>GetLatitude(U63)</f>
+        <v>40.4081110</v>
+      </c>
+      <c r="W63" s="39" t="str">
+        <f>GetLongitude(U63)</f>
+        <v>-3.7045830</v>
+      </c>
+      <c r="X63" s="33" t="str">
+        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
+        <v>40.4081110, -3.7045830</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A64" s="32" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>1063</v>
+        <v>498</v>
+      </c>
+      <c r="C64" s="32">
+        <v>6277005011</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>888</v>
+        <v>541</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>1063</v>
+        <v>875</v>
+      </c>
+      <c r="G64" s="32">
+        <v>28012</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I64" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>469</v>
+        <v>154</v>
       </c>
       <c r="K64" s="33" t="s">
-        <v>470</v>
+        <v>155</v>
       </c>
       <c r="L64" s="33"/>
       <c r="M64" s="33" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="N64" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O64" s="33" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="P64" s="33" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="Q64" s="33" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="R64" s="33" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="S64" s="33"/>
       <c r="T64" s="37" t="s">
-        <v>820</v>
-      </c>
-      <c r="U64" s="33" t="s">
-        <v>1063</v>
-      </c>
-      <c r="V64" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="W64" s="40" t="s">
-        <v>1069</v>
-      </c>
-      <c r="X64" s="33" t="s">
-        <v>887</v>
+        <v>824</v>
+      </c>
+      <c r="U64" s="33" t="str">
+        <f>"" &amp; $F64 &amp; ", " &amp; $G64 &amp; ", " &amp; $I64</f>
+        <v>CALLE DUQUE DE ALBA, 13 , 28012, MADRID</v>
+      </c>
+      <c r="V64" s="38" t="str">
+        <f>GetLatitude(U64)</f>
+        <v>40.4116859</v>
+      </c>
+      <c r="W64" s="39" t="str">
+        <f>GetLongitude(U64)</f>
+        <v>-3.7062671</v>
+      </c>
+      <c r="X64" s="33" t="str">
+        <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
+        <v>40.4116859, -3.7062671</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>448</v>
+        <v>840</v>
       </c>
       <c r="C65" s="32">
-        <v>622042564</v>
+        <v>915222921</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>695</v>
+        <v>876</v>
       </c>
       <c r="G65" s="32">
-        <v>28034</v>
+        <v>28037</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="I65" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>900</v>
+        <v>154</v>
       </c>
       <c r="K65" s="33" t="s">
-        <v>451</v>
+        <v>155</v>
       </c>
       <c r="L65" s="33"/>
       <c r="M65" s="33" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="N65" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O65" s="33" t="s">
-        <v>363</v>
+        <v>72</v>
       </c>
       <c r="P65" s="33" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="33" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="R65" s="33" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="S65" s="33"/>
       <c r="T65" s="37" t="s">
-        <v>818</v>
-      </c>
-      <c r="U65" s="33" t="str">
-        <f>"" &amp; $F65 &amp; ", " &amp; $G65 &amp; ", " &amp; $I65</f>
-        <v>CARRETERA DE COLMENAR KM 9,100, 28034, MADRID</v>
-      </c>
-      <c r="V65" s="33" t="str">
+        <v>1044</v>
+      </c>
+      <c r="U65" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="V65" s="38" t="str">
         <f>GetLatitude(U65)</f>
-        <v>40.4876812</v>
-      </c>
-      <c r="W65" s="36" t="str">
+        <v>40.4318513</v>
+      </c>
+      <c r="W65" s="39" t="str">
         <f>GetLongitude(U65)</f>
-        <v>-3.6945570</v>
+        <v>-3.6330116</v>
       </c>
       <c r="X65" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4876812, -3.6945570</v>
+        <v>40.4318513, -3.6330116</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="C66" s="32">
-        <v>658977641</v>
+        <v>913581444</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>871</v>
+        <v>698</v>
       </c>
       <c r="G66" s="32">
-        <v>28005</v>
+        <v>28034</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="I66" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J66" s="33" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="K66" s="33" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="L66" s="33"/>
       <c r="M66" s="33" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N66" s="33" t="s">
         <v>95</v>
       </c>
       <c r="O66" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="P66" s="33" t="s">
-        <v>459</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P66" s="33"/>
       <c r="Q66" s="33"/>
       <c r="R66" s="33"/>
       <c r="S66" s="33"/>
       <c r="T66" s="37"/>
       <c r="U66" s="33" t="str">
         <f>"" &amp; $F66 &amp; ", " &amp; $G66 &amp; ", " &amp; $I66</f>
-        <v>CALLE MARTIN DE VARGAS, 13 BAJO, 28005, MADRID</v>
-      </c>
-      <c r="V66" s="33" t="str">
+        <v>AVENIDA LLANO CASTELLANO, 26, 28034, MADRID</v>
+      </c>
+      <c r="V66" s="38" t="str">
         <f>GetLatitude(U66)</f>
-        <v>40.4032538</v>
-      </c>
-      <c r="W66" s="36" t="str">
+        <v>40.4888120</v>
+      </c>
+      <c r="W66" s="39" t="str">
         <f>GetLongitude(U66)</f>
-        <v>-3.7019884</v>
+        <v>-3.6850846</v>
       </c>
       <c r="X66" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4032538, -3.7019884</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
+        <v>40.4888120, -3.6850846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>365</v>
+        <v>509</v>
       </c>
       <c r="C67" s="32">
-        <v>676553906</v>
+        <v>622397863</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>858</v>
+        <v>699</v>
       </c>
       <c r="G67" s="32">
-        <v>28014</v>
+        <v>28005</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="I67" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J67" s="33" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="K67" s="33" t="s">
         <v>129</v>
@@ -10767,179 +10777,179 @@
         <v>68</v>
       </c>
       <c r="P67" s="33" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="Q67" s="33" t="s">
-        <v>368</v>
+        <v>512</v>
       </c>
       <c r="R67" s="33" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="S67" s="33"/>
       <c r="T67" s="37" t="s">
-        <v>1039</v>
+        <v>825</v>
       </c>
       <c r="U67" s="33" t="str">
         <f>"" &amp; $F67 &amp; ", " &amp; $G67 &amp; ", " &amp; $I67</f>
-        <v>CALLE LOPE DE VEGA, 45, 28014, MADRID</v>
-      </c>
-      <c r="V67" s="33" t="str">
+        <v>CALLE ARQUITECTURA, 15, BAJO, 28005, MADRID</v>
+      </c>
+      <c r="V67" s="38" t="str">
         <f>GetLatitude(U67)</f>
-        <v>40.4138278</v>
-      </c>
-      <c r="W67" s="36" t="str">
+        <v>40.3991868</v>
+      </c>
+      <c r="W67" s="39" t="str">
         <f>GetLongitude(U67)</f>
-        <v>-3.6952302</v>
+        <v>-3.7019980</v>
       </c>
       <c r="X67" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4138278, -3.6952302</v>
+        <v>40.3991868, -3.7019980</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="C68" s="32">
-        <v>915592906</v>
+        <v>912191157</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>292</v>
+        <v>515</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>293</v>
+        <v>516</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>683</v>
+        <v>877</v>
       </c>
       <c r="G68" s="32">
-        <v>28012</v>
+        <v>28014</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="I68" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J68" s="33" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="K68" s="33" t="s">
-        <v>903</v>
+        <v>517</v>
       </c>
       <c r="L68" s="33"/>
       <c r="M68" s="33" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="N68" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O68" s="33" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="P68" s="33" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="Q68" s="33" t="s">
-        <v>738</v>
+        <v>518</v>
       </c>
       <c r="R68" s="33" t="s">
-        <v>310</v>
+        <v>519</v>
       </c>
       <c r="S68" s="33"/>
       <c r="T68" s="37" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="U68" s="33" t="str">
         <f>"" &amp; $F68 &amp; ", " &amp; $G68 &amp; ", " &amp; $I68</f>
-        <v>CALLE LAVAPIÉS, 13, 28012, MADRID</v>
-      </c>
-      <c r="V68" s="33" t="str">
+        <v>PLAZA DE LAS LETRAS. CALLE ALAMEDA, 15, 28014, MADRID</v>
+      </c>
+      <c r="V68" s="38" t="str">
         <f>GetLatitude(U68)</f>
-        <v>40.4110726</v>
-      </c>
-      <c r="W68" s="36" t="str">
+        <v>40.4105268</v>
+      </c>
+      <c r="W68" s="39" t="str">
         <f>GetLongitude(U68)</f>
-        <v>-3.7027240</v>
+        <v>-3.6937908</v>
       </c>
       <c r="X68" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4110726, -3.7027240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" ht="25.2" x14ac:dyDescent="0.2">
+        <v>40.4105268, -3.6937908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C69" s="32">
-        <v>914299756</v>
+        <v>520</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>1062</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>186</v>
+        <v>521</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>187</v>
+        <v>522</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>850</v>
+        <v>877</v>
       </c>
       <c r="G69" s="32">
         <v>28014</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="I69" s="33" t="s">
         <v>85</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>154</v>
+        <v>469</v>
       </c>
       <c r="K69" s="33" t="s">
-        <v>155</v>
+        <v>470</v>
       </c>
       <c r="L69" s="33"/>
       <c r="M69" s="33" t="s">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O69" s="33" t="s">
-        <v>308</v>
+        <v>523</v>
       </c>
       <c r="P69" s="33" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="Q69" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="R69" s="33"/>
+        <v>754</v>
+      </c>
+      <c r="R69" s="33" t="s">
+        <v>524</v>
+      </c>
       <c r="S69" s="33"/>
       <c r="T69" s="37" t="s">
-        <v>1032</v>
+        <v>827</v>
       </c>
       <c r="U69" s="33" t="str">
         <f>"" &amp; $F69 &amp; ", " &amp; $G69 &amp; ", " &amp; $I69</f>
-        <v>CALLE SAN AGUSTIN, 7. 1RA, EXT IZDA, 28014, MADRID</v>
-      </c>
-      <c r="V69" s="33" t="str">
-        <f>GetLatitude(U69)</f>
-        <v>40.4148312</v>
-      </c>
-      <c r="W69" s="36" t="str">
-        <f>GetLongitude(U69)</f>
-        <v>-3.6967330</v>
+        <v>PLAZA DE LAS LETRAS. CALLE ALAMEDA, 15, 28014, MADRID</v>
+      </c>
+      <c r="V69" s="38" t="s">
+        <v>1072</v>
+      </c>
+      <c r="W69" s="39" t="s">
+        <v>1073</v>
       </c>
       <c r="X69" s="33" t="str">
         <f>GetCoordinates(Table324[[#This Row],[fullAddress]])</f>
-        <v>40.4148312, -3.6967330</v>
+        <v>40.4105268, -3.6937908</v>
       </c>
     </row>
   </sheetData>
@@ -10947,63 +10957,63 @@
     <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="M1" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E34" r:id="rId5" display="http://www.refugiadosalcala.es/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E49" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E55" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E54" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E52" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E69" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" display="http://www.refugiadosalcala.es/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E16" r:id="rId16" display="http://acgandalf-gandalf.blogspot.com.es/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E39" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E59" r:id="rId19" display="https://orbitadiversa.wordpress.com/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E68" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E51" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E21" r:id="rId28" display="http://www.grupolabor.org/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E67" r:id="rId30" display="http://www.sercade.org" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E20" r:id="rId31" display="https://www.asociacioncgc.es/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E21" r:id="rId19" display="https://orbitadiversa.wordpress.com/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E30" r:id="rId28" display="http://www.grupolabor.org/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E33" r:id="rId30" display="http://www.sercade.org" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E34" r:id="rId31" display="https://www.asociacioncgc.es/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="E35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E3" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E40" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E60" r:id="rId35" display="http://www.otropuntodepartida.org" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E24" r:id="rId36" display="https://asociacionpaideia.org/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E25" r:id="rId38" display="http://www.progestion.org/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E37" r:id="rId42" display="www.ordendemalta.es/" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E38" r:id="rId43" display="https://www.ordendemalta.es/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E36" r:id="rId45" display="http://www.proyectosluzcasanova.org/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E50" r:id="rId46" display="https://www.fundacioibnbattuta.org/" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E2" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E66" r:id="rId49" display="https://www.saveagirlsaveageneration.org" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E45" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E64" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E46" r:id="rId53" display="http://www.fundaciontriangulo.org/sedes/sede-madrid" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E29" r:id="rId54" display="www.facebook.com/Asociaciontriangulojuventud/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E41" r:id="rId55" display="https://www.facebook.com/territoriodomestico/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E27" r:id="rId56" display="https://www.sendadecuidados.org/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E8" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E10" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E56" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E57" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E39" r:id="rId35" display="http://www.otropuntodepartida.org" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E41" r:id="rId36" display="https://asociacionpaideia.org/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E43" r:id="rId38" display="http://www.progestion.org/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E48" r:id="rId42" display="www.ordendemalta.es/" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E49" r:id="rId43" display="https://www.ordendemalta.es/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E51" r:id="rId45" display="http://www.proyectosluzcasanova.org/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E52" r:id="rId46" display="https://www.fundacioibnbattuta.org/" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E55" r:id="rId49" display="https://www.saveagirlsaveageneration.org" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E59" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E60" r:id="rId53" display="http://www.fundaciontriangulo.org/sedes/sede-madrid" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E61" r:id="rId54" display="www.facebook.com/Asociaciontriangulojuventud/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E63" r:id="rId55" display="https://www.facebook.com/territoriodomestico/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E64" r:id="rId56" display="https://www.sendadecuidados.org/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
@@ -11094,7 +11104,7 @@
         <v>120</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -11131,7 +11141,7 @@
         <v>192</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -11168,7 +11178,7 @@
         <v>195</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -11205,7 +11215,7 @@
         <v>198</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -11242,7 +11252,7 @@
         <v>204</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11279,7 +11289,7 @@
         <v>207</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11316,7 +11326,7 @@
         <v>210</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11353,7 +11363,7 @@
         <v>214</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11392,7 +11402,7 @@
         <v>123</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11429,7 +11439,7 @@
         <v>218</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11466,7 +11476,7 @@
         <v>222</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11540,7 +11550,7 @@
         <v>227</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11577,7 +11587,7 @@
         <v>230</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11614,7 +11624,7 @@
         <v>236</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11651,7 +11661,7 @@
         <v>241</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11688,7 +11698,7 @@
         <v>245</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -11725,7 +11735,7 @@
         <v>250</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -11762,7 +11772,7 @@
         <v>254</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -11799,7 +11809,7 @@
         <v>259</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -11836,7 +11846,7 @@
         <v>263</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -11875,7 +11885,7 @@
         <v>126</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -11912,7 +11922,7 @@
         <v>266</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -11949,7 +11959,7 @@
         <v>269</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -11986,7 +11996,7 @@
         <v>272</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -12020,10 +12030,10 @@
         <v>274</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -12060,7 +12070,7 @@
         <v>277</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -12097,7 +12107,7 @@
         <v>280</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -12136,7 +12146,7 @@
         <v>132</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -12173,7 +12183,7 @@
         <v>282</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -12210,7 +12220,7 @@
         <v>286</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -12247,7 +12257,7 @@
         <v>290</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -12284,7 +12294,7 @@
         <v>294</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -12323,7 +12333,7 @@
         <v>135</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -12360,7 +12370,7 @@
         <v>297</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -12397,7 +12407,7 @@
         <v>828</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -12434,7 +12444,7 @@
         <v>302</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -12471,7 +12481,7 @@
         <v>304</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -12508,7 +12518,7 @@
         <v>307</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -12545,7 +12555,7 @@
         <v>313</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -12582,7 +12592,7 @@
         <v>316</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -12621,7 +12631,7 @@
         <v>138</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -12657,10 +12667,10 @@
         <v>143</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -12699,7 +12709,7 @@
         <v>146</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -12738,7 +12748,7 @@
         <v>149</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -12777,7 +12787,7 @@
         <v>152</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -36755,142 +36765,142 @@
         <v>715</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>953</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -40587,7 +40597,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -40626,7 +40636,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -40665,7 +40675,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -40704,7 +40714,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -40743,7 +40753,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -40782,7 +40792,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -40821,7 +40831,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -40860,7 +40870,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -40899,7 +40909,7 @@
         <v>52</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -40938,7 +40948,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -40977,7 +40987,7 @@
         <v>57</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -68743,7 +68753,7 @@
         <v>667</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>668</v>
@@ -68782,7 +68792,7 @@
         <v>663</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>664</v>
@@ -68821,7 +68831,7 @@
         <v>671</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>672</v>
@@ -68899,7 +68909,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>17</v>
@@ -68972,10 +68982,10 @@
         <v>67</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -68992,7 +69002,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -69006,10 +69016,10 @@
         <v>74</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -69023,10 +69033,10 @@
         <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -69040,10 +69050,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -69084,67 +69094,67 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1049</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1052</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1055</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1058</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E5" s="4"/>
     </row>
